--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_186.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_186.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Suburban Extended Stay Hotel Avondale</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Avondale</t>
   </si>
   <si>
@@ -61,78 +139,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -503,34 +509,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>52917</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70094</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -555,76 +580,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E2" t="n">
+        <v>70094</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_186.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_186.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="625">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,1770 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r608422249-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>2056957</t>
+  </si>
+  <si>
+    <t>472155</t>
+  </si>
+  <si>
+    <t>608422249</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>Bedbugs</t>
+  </si>
+  <si>
+    <t>Bedbugs! Bedbugs! Bedbugs! This was the worst place I have ever stayed. A friend and I stayed here the past weekend for a mini getaway. Idk how she found this place but i will never stay at this hotel again. From talking with the staff this is a privately owned hotel. And apparently the owners don’t give a damn about this location. My friend and I spotted the bugs  while taking a nap. We had just arrived and was extremely tired from the flight in. As we woke up I spotted the bedbug crawling around in the bed I was in. I yelled at my friend to get out of the bed there’s bedbugs. The room not only smelled like cigarettes and wet dog but it had bedbugs. We rushed to the front desk. The staff didn’t really know what to tell us, or what to do. She basically was like she’s not going in the room to check anything. That it may not even be bedbugs . She had to wait for  the bug people to come and decide what it is. So we requested to be moved to another room different floor. Just to shower and be off that floor. We assume it was just one room or just one floor. Due to the fact the lady at front desk said they had never had a complaint like that before.  Boy was we wrong!!!  We continue to...Bedbugs! Bedbugs! Bedbugs! This was the worst place I have ever stayed. A friend and I stayed here the past weekend for a mini getaway. Idk how she found this place but i will never stay at this hotel again. From talking with the staff this is a privately owned hotel. And apparently the owners don’t give a damn about this location. My friend and I spotted the bugs  while taking a nap. We had just arrived and was extremely tired from the flight in. As we woke up I spotted the bedbug crawling around in the bed I was in. I yelled at my friend to get out of the bed there’s bedbugs. The room not only smelled like cigarettes and wet dog but it had bedbugs. We rushed to the front desk. The staff didn’t really know what to tell us, or what to do. She basically was like she’s not going in the room to check anything. That it may not even be bedbugs . She had to wait for  the bug people to come and decide what it is. So we requested to be moved to another room different floor. Just to shower and be off that floor. We assume it was just one room or just one floor. Due to the fact the lady at front desk said they had never had a complaint like that before.  Boy was we wrong!!!  We continue to have issues with bedbugs they only refunded part of my friend’s money. The morning staff had no clue we complained about bugs. So they made the bed up as if nothing happened in the previous room. No one  passed on any information to the staff of a bedbug problem. They didn’t even talk with us about it . So I’m not sure if the pest control people even came.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Bedbugs! Bedbugs! Bedbugs! This was the worst place I have ever stayed. A friend and I stayed here the past weekend for a mini getaway. Idk how she found this place but i will never stay at this hotel again. From talking with the staff this is a privately owned hotel. And apparently the owners don’t give a damn about this location. My friend and I spotted the bugs  while taking a nap. We had just arrived and was extremely tired from the flight in. As we woke up I spotted the bedbug crawling around in the bed I was in. I yelled at my friend to get out of the bed there’s bedbugs. The room not only smelled like cigarettes and wet dog but it had bedbugs. We rushed to the front desk. The staff didn’t really know what to tell us, or what to do. She basically was like she’s not going in the room to check anything. That it may not even be bedbugs . She had to wait for  the bug people to come and decide what it is. So we requested to be moved to another room different floor. Just to shower and be off that floor. We assume it was just one room or just one floor. Due to the fact the lady at front desk said they had never had a complaint like that before.  Boy was we wrong!!!  We continue to...Bedbugs! Bedbugs! Bedbugs! This was the worst place I have ever stayed. A friend and I stayed here the past weekend for a mini getaway. Idk how she found this place but i will never stay at this hotel again. From talking with the staff this is a privately owned hotel. And apparently the owners don’t give a damn about this location. My friend and I spotted the bugs  while taking a nap. We had just arrived and was extremely tired from the flight in. As we woke up I spotted the bedbug crawling around in the bed I was in. I yelled at my friend to get out of the bed there’s bedbugs. The room not only smelled like cigarettes and wet dog but it had bedbugs. We rushed to the front desk. The staff didn’t really know what to tell us, or what to do. She basically was like she’s not going in the room to check anything. That it may not even be bedbugs . She had to wait for  the bug people to come and decide what it is. So we requested to be moved to another room different floor. Just to shower and be off that floor. We assume it was just one room or just one floor. Due to the fact the lady at front desk said they had never had a complaint like that before.  Boy was we wrong!!!  We continue to have issues with bedbugs they only refunded part of my friend’s money. The morning staff had no clue we complained about bugs. So they made the bed up as if nothing happened in the previous room. No one  passed on any information to the staff of a bedbug problem. They didn’t even talk with us about it . So I’m not sure if the pest control people even came.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r608184631-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>608184631</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>GREAT rapport of quality and price.</t>
+  </si>
+  <si>
+    <t>Wasn't expecting much for the nice low price I got and was very pleasantly surprised.  Room was spacious and with a kitchenette.  AC worked fine.  Well located- about 20 minutes from the Quarter by car.  Staff very friendly.  Have paid a lot more for a lot less elsewhere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r607828128-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>607828128</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Avondale NO</t>
+  </si>
+  <si>
+    <t>Booked in for 2 nights and then added another night.Front door could probably do with a wipe down.Fill the hole in the driveway.The staff was friendly.Room had little kitchenette.Wifi good.Laundry.Heaps of parking.Room was clean.If you stay one week, the rooms only get serviced once. But you can ask for the room to be cleaned more.Full fridge/freezer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r603636783-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>603636783</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Avondale Extended Stay</t>
+  </si>
+  <si>
+    <t>We waited in line for 42 minutes to be checked in, even though we (and the three people ahead of us) all had reservations.   The lobby was crowded and hot.  We were on our way to take a cruise, and I swear our room was smaller than our cabin on the cruise!  It was clean, but we were supposed to have two beds, and there was only one.  My granddaughter ended up in the 2 ft. wide space between the bed and wall, sleeping on blankets.  The kitchen was nice, but also VERY small.  Bathroom was adequate.  Room was VERY noisy, even at 2 a.m.!  Would NEVER stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We waited in line for 42 minutes to be checked in, even though we (and the three people ahead of us) all had reservations.   The lobby was crowded and hot.  We were on our way to take a cruise, and I swear our room was smaller than our cabin on the cruise!  It was clean, but we were supposed to have two beds, and there was only one.  My granddaughter ended up in the 2 ft. wide space between the bed and wall, sleeping on blankets.  The kitchen was nice, but also VERY small.  Bathroom was adequate.  Room was VERY noisy, even at 2 a.m.!  Would NEVER stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r598703728-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>598703728</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>A visit home to reset!</t>
+  </si>
+  <si>
+    <t>When life leaves you exhausted, it's nothing like going home to re-set. I've passed this hotel tons of times going to the cemetary &amp; finally decided to check it out. Last minute trip/booking w/excellent rates for a nicely kept extended stay hotel. Staff was kind, guests were friendly, and it was in the perfect location for what I needed to do on his visit. The bed could've been a bit softer &amp; more places to put luggage also would've been nice. Overall, I can't wait to get back.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r595112373-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>595112373</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>This is a terrible place...reviews are fake news</t>
+  </si>
+  <si>
+    <t>This is a terrible place, reviews are fake news... don't believe them. My first time in Louisiana, heading to Essence festival, it was the only place available considerable 30 min from the city but since the reviews were 4.5 went ahead and booked  Check-in, front desk wasn't friendly, walked into my room I found weed on the cutting board, went back to front desk have to fight for a non smoking room, mind you I have heart problems, they changed me and the other 2 couples to non smoking floor walk in to the room the same smell a weed and in one of the other couples room the smoke detector was gone, It was a complete mess. Don't stay at this place.  The city should close down this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a terrible place, reviews are fake news... don't believe them. My first time in Louisiana, heading to Essence festival, it was the only place available considerable 30 min from the city but since the reviews were 4.5 went ahead and booked  Check-in, front desk wasn't friendly, walked into my room I found weed on the cutting board, went back to front desk have to fight for a non smoking room, mind you I have heart problems, they changed me and the other 2 couples to non smoking floor walk in to the room the same smell a weed and in one of the other couples room the smoke detector was gone, It was a complete mess. Don't stay at this place.  The city should close down this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r593858939-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>593858939</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>Beware of changing price</t>
+  </si>
+  <si>
+    <t>They quoted me a rate of $113 for a double but wouldn't let me put a credit card down on it. They told me to just come in. I was surprised but each Choice property is a bit different.  When I got to the desk 2 hours later the woman "couldn't find my rate" in the computer and also couldn't find the usual AARP discount or the AAA discount. So I got stuck with $154 in a smoking room. Like I said, each Choice property has it's own quirks but this is the first one to RIP me off. The Big Easy is the Big Sleazy at least at this Choice property. MoreShow less</t>
+  </si>
+  <si>
+    <t>They quoted me a rate of $113 for a double but wouldn't let me put a credit card down on it. They told me to just come in. I was surprised but each Choice property is a bit different.  When I got to the desk 2 hours later the woman "couldn't find my rate" in the computer and also couldn't find the usual AARP discount or the AAA discount. So I got stuck with $154 in a smoking room. Like I said, each Choice property has it's own quirks but this is the first one to RIP me off. The Big Easy is the Big Sleazy at least at this Choice property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r587282466-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>587282466</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Perfect for us.</t>
+  </si>
+  <si>
+    <t>Our stay was wonderful. Our room had a kitchenette which saved us alot. There is a grocery store next door. The room was very large. Very reasonable. Only complaint that i have is no continental breakfast and the pool is very small. Staff was very friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r583505926-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>583505926</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Not so great</t>
+  </si>
+  <si>
+    <t>It took a long time to check in because the clerk had a problem with our Choice Privileges account. It is under my husband's name and he wasn't on this trip. We've been members of Choice Privileges for 20 years and never had this happen. I haven't checked yet to see if my points were awarded for the stay. Once checked in we were directed to park behind motel and it was not close to our room. We used an entrance that smelled like cigarettes as did the hallway. We got to room to find that the TV didn't work. I called the desk and the clerk said she'd come down and check. She did after a short wait and was able to finally get it working after rearranging some cables behind the TV. (The clerk was very nice) While there we asked if we could get another towel since there were just 2 in the room. She told us she could get some hand towels or washcloths but they were running short on towels. My daughter ended up walking to front desk and telling them she'd stay there until they found another towel or two which they did. Once I looked around the bathroom I found that there was a used bar of soap left in the shower from previous guests-yuck. There was an ice machine but when we asked for an ice bucket we were given a plastic...It took a long time to check in because the clerk had a problem with our Choice Privileges account. It is under my husband's name and he wasn't on this trip. We've been members of Choice Privileges for 20 years and never had this happen. I haven't checked yet to see if my points were awarded for the stay. Once checked in we were directed to park behind motel and it was not close to our room. We used an entrance that smelled like cigarettes as did the hallway. We got to room to find that the TV didn't work. I called the desk and the clerk said she'd come down and check. She did after a short wait and was able to finally get it working after rearranging some cables behind the TV. (The clerk was very nice) While there we asked if we could get another towel since there were just 2 in the room. She told us she could get some hand towels or washcloths but they were running short on towels. My daughter ended up walking to front desk and telling them she'd stay there until they found another towel or two which they did. Once I looked around the bathroom I found that there was a used bar of soap left in the shower from previous guests-yuck. There was an ice machine but when we asked for an ice bucket we were given a plastic bag because they didn't have ice buckets. There was a frig but no ice in ice trays. The walls were pretty thin and we could hear conversations from nearby rooms. At this point I started looking around for another motel close by but being a Saturday night we couldn't find anything and decided to make the best of it. The bed skirts had some kind of stuff caked on them (food?) and we just avoided touching them. We did get a fairly good night's sleep after all this and the only reason I'm not rating this lower was because the clerk really was nice and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>It took a long time to check in because the clerk had a problem with our Choice Privileges account. It is under my husband's name and he wasn't on this trip. We've been members of Choice Privileges for 20 years and never had this happen. I haven't checked yet to see if my points were awarded for the stay. Once checked in we were directed to park behind motel and it was not close to our room. We used an entrance that smelled like cigarettes as did the hallway. We got to room to find that the TV didn't work. I called the desk and the clerk said she'd come down and check. She did after a short wait and was able to finally get it working after rearranging some cables behind the TV. (The clerk was very nice) While there we asked if we could get another towel since there were just 2 in the room. She told us she could get some hand towels or washcloths but they were running short on towels. My daughter ended up walking to front desk and telling them she'd stay there until they found another towel or two which they did. Once I looked around the bathroom I found that there was a used bar of soap left in the shower from previous guests-yuck. There was an ice machine but when we asked for an ice bucket we were given a plastic...It took a long time to check in because the clerk had a problem with our Choice Privileges account. It is under my husband's name and he wasn't on this trip. We've been members of Choice Privileges for 20 years and never had this happen. I haven't checked yet to see if my points were awarded for the stay. Once checked in we were directed to park behind motel and it was not close to our room. We used an entrance that smelled like cigarettes as did the hallway. We got to room to find that the TV didn't work. I called the desk and the clerk said she'd come down and check. She did after a short wait and was able to finally get it working after rearranging some cables behind the TV. (The clerk was very nice) While there we asked if we could get another towel since there were just 2 in the room. She told us she could get some hand towels or washcloths but they were running short on towels. My daughter ended up walking to front desk and telling them she'd stay there until they found another towel or two which they did. Once I looked around the bathroom I found that there was a used bar of soap left in the shower from previous guests-yuck. There was an ice machine but when we asked for an ice bucket we were given a plastic bag because they didn't have ice buckets. There was a frig but no ice in ice trays. The walls were pretty thin and we could hear conversations from nearby rooms. At this point I started looking around for another motel close by but being a Saturday night we couldn't find anything and decided to make the best of it. The bed skirts had some kind of stuff caked on them (food?) and we just avoided touching them. We did get a fairly good night's sleep after all this and the only reason I'm not rating this lower was because the clerk really was nice and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r583059415-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>583059415</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Clean, well kept and great staff</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights, all staff were very friendly and helpful. I especially was impressed with Kashona, she checked us in caring about us and our experience, is a New Orleans native and very enthusiastic and helpful in regards to experiencing NOLA. When we saw her following days she checked as to how we were enjoying, she truly cared about us experiencing the area and had suggestions for future visits regarding celebrating Marti Grau, and other festivals. All staff members were helpful and nice, willing to answer questions and make suggestions so we enjoyed our stay. The hotel is walking distance from groceries and food, therefore having a stovetop, mocrowave and refrigerator in the room was convenient. The parking on premises was very convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights, all staff were very friendly and helpful. I especially was impressed with Kashona, she checked us in caring about us and our experience, is a New Orleans native and very enthusiastic and helpful in regards to experiencing NOLA. When we saw her following days she checked as to how we were enjoying, she truly cared about us experiencing the area and had suggestions for future visits regarding celebrating Marti Grau, and other festivals. All staff members were helpful and nice, willing to answer questions and make suggestions so we enjoyed our stay. The hotel is walking distance from groceries and food, therefore having a stovetop, mocrowave and refrigerator in the room was convenient. The parking on premises was very convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r578405344-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>578405344</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>ALL of The staff was AMAZING, so helpful &amp; pleasant!!! The room was perfect &amp; had everything you would need. I would definitely recommend this hotel. They care about their patrons!! It is Perfect distance from the city!! Thank you all so much for helping to make our trip a memorable one!! From Debbie, Christy &amp; Liz</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r577707065-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>577707065</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Good Place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We recently stayed here when we went down a day early for a cruise that we were taking. The hotel was nice and in a decent location. We didn't have any issues at all. It was perfect for what we were looking for. I will definitely stay here again if we cruise out of New Orleans in the future. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r575029448-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>575029448</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>A very nice hotel for a stay</t>
+  </si>
+  <si>
+    <t>Excellent service by Allison and Crystal at the front desk.  Allison helped us out by telling us to go to Lakeside Mall for shopping.   Loved the cookies that Crystal baked.  Nice, ice cold water at the front desk too.  Tremendous gym, you can get a great workout here.  Convenient location.  Adjacent to a waffle house for breakfast.  Our room was roomy and clean.  Very good housekeeping staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r574226641-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>574226641</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Tons of hairs on sheets, coke spilled all over, very dirty!!!!</t>
+  </si>
+  <si>
+    <t>Probably the worst hotel I've stayed at for the last 10 years. Took  over a half hour to check in. The sheets had 6-7 long stringy black hairs on each bed with yellowish sheets.  Hairs on the blankets too. When we told the front desk, they said they gave us a couple of sheets to change it ourselves, but said they were out of fitted sheets. The bathroom door looked like it had coke poured down it. There were half empty bottles of shampoo. The front desk said they would send housekeeping the next day but they didn't come at all for the duration of our trip. We found the housekeeper arguing with another guest who was complaining that her room wasn't clean, to which the housekeeper was shouting at her that she was a liar.  The next day the toilet clogged and overflowed. The next day we were told the hot water was going to be out from 8am-5pm. The hallway was always dirty. The TV was super small and had wires coming out of it. I can't believe this hotel has such high reviews.MoreShow less</t>
+  </si>
+  <si>
+    <t>Probably the worst hotel I've stayed at for the last 10 years. Took  over a half hour to check in. The sheets had 6-7 long stringy black hairs on each bed with yellowish sheets.  Hairs on the blankets too. When we told the front desk, they said they gave us a couple of sheets to change it ourselves, but said they were out of fitted sheets. The bathroom door looked like it had coke poured down it. There were half empty bottles of shampoo. The front desk said they would send housekeeping the next day but they didn't come at all for the duration of our trip. We found the housekeeper arguing with another guest who was complaining that her room wasn't clean, to which the housekeeper was shouting at her that she was a liar.  The next day the toilet clogged and overflowed. The next day we were told the hot water was going to be out from 8am-5pm. The hallway was always dirty. The TV was super small and had wires coming out of it. I can't believe this hotel has such high reviews.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r537881181-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>537881181</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>HORRIBLE - EVERYTHING</t>
+  </si>
+  <si>
+    <t>Awful awful experience in this hotel. I had made a reservation during evacuation from Irma, and cancel one of the nights. They did not accept the cancellation, even though we were complying with the policy. They have charged me not once but several nights, and they are not working to solve this issue. They do not care about customer service. THEY ARE STEALING MY MONEY</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r526726666-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>526726666</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Terrible Smell in the room</t>
+  </si>
+  <si>
+    <t>I would have given this hotel much higher ratings however there was the worse smell in the room. The staff helped the best way possible to remove the smell however it didn't work. So the Staff was excellent and the room was excellent but the smell was terrible. It was a musty molded smell.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>I would have given this hotel much higher ratings however there was the worse smell in the room. The staff helped the best way possible to remove the smell however it didn't work. So the Staff was excellent and the room was excellent but the smell was terrible. It was a musty molded smell.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r474808519-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>474808519</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Road Trip to Florida (2nd Stop) Going to Florida to close out all my Mommie's affair due to the loss of my Daddy.</t>
+  </si>
+  <si>
+    <t>Again we arrived after midnight and the staff was quick to check us in. I'm so amazed how thorough this young man adjusted my reservations when staying a day less. He asked if there was a problem with the hotel and if he could do anything to make things right. I assured him it was due to us making a pit stop to visit other family members before they were leaving for their vacation.I'm writing this because the young man ASKED us if everything was alright and also wanted to make things better BEFORE knowing why we made our stay a day less.Common Courtesy!!!Thank you for you!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Jose G, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Again we arrived after midnight and the staff was quick to check us in. I'm so amazed how thorough this young man adjusted my reservations when staying a day less. He asked if there was a problem with the hotel and if he could do anything to make things right. I assured him it was due to us making a pit stop to visit other family members before they were leaving for their vacation.I'm writing this because the young man ASKED us if everything was alright and also wanted to make things better BEFORE knowing why we made our stay a day less.Common Courtesy!!!Thank you for you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r473983934-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>473983934</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Superb Staff, Poor Facilities</t>
+  </si>
+  <si>
+    <t>The staff were the star of this hotel.  It needs them, as its facilities were la king.  Near the tracks, so be prepared to hear the trains.  The bed was not as hard as my driveway, but the similarities were striking.  Shower leaked.  Good crash pad after a late airport arrival. Anything more - look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>The staff were the star of this hotel.  It needs them, as its facilities were la king.  Near the tracks, so be prepared to hear the trains.  The bed was not as hard as my driveway, but the similarities were striking.  Shower leaked.  Good crash pad after a late airport arrival. Anything more - look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r471924719-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>471924719</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Good Hotel so so neighborhood</t>
+  </si>
+  <si>
+    <t>Here for a quick overnight business trip.  The room was good and the staff was very polite helpful and friendly. The location however was in a not so nice area , Most of the restaurants appeared to be of the fast food variety.  I felt it was a bit high on the price.  Hallways had a strong marijuana odor.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jose G, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Here for a quick overnight business trip.  The room was good and the staff was very polite helpful and friendly. The location however was in a not so nice area , Most of the restaurants appeared to be of the fast food variety.  I felt it was a bit high on the price.  Hallways had a strong marijuana odor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r468974736-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>468974736</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Felt Safe, but not the nicest</t>
+  </si>
+  <si>
+    <t>We did a one night stay.  The area was well-lit and we never felt scared or unsafe.  When we got to our floor the ENTIRE floor smelled strongly of cigarettes.  We had requested a nonsmoking room but the room had obviously been smoked in and there was even an ashtray laying on the table.  In the closet there were 2 used washrags laying on the floor.  We didn't use the shower and wore flip flops on the carpet just in case it wasn't cleaned well.  Beds were comfortable, and it was a lot better than paying $425 a night in NOLA...but I think next time we will look for a different place to stay.  For what it's worth, everyone we encountered was nice and helpful and the guests were nice.  It was just the strong cigarette smell and dirty washrags that made me give it 2 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jose G, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>We did a one night stay.  The area was well-lit and we never felt scared or unsafe.  When we got to our floor the ENTIRE floor smelled strongly of cigarettes.  We had requested a nonsmoking room but the room had obviously been smoked in and there was even an ashtray laying on the table.  In the closet there were 2 used washrags laying on the floor.  We didn't use the shower and wore flip flops on the carpet just in case it wasn't cleaned well.  Beds were comfortable, and it was a lot better than paying $425 a night in NOLA...but I think next time we will look for a different place to stay.  For what it's worth, everyone we encountered was nice and helpful and the guests were nice.  It was just the strong cigarette smell and dirty washrags that made me give it 2 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r461014179-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>461014179</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Family visit before the Mardi Gras Madness</t>
+  </si>
+  <si>
+    <t>Came to visit our Great Aunt..alot of places was booked..I usually stay at the Candlewood..but Saturday night's price was outrageous. So we decided to try here for $95/night. If I wasn't so stubborn I could of got it a days earlier at a better price of $79/night. I can only speak for us. The place was really nice. Our room was very very clean. The king bed and pillows was like a  cloud! The kitchenette was an added plus! Everything was perfect and at a better price. They're great competition for Candlewood..$140/night without taxes that is vs. $79-$95/night smoking or non!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Jose G, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Came to visit our Great Aunt..alot of places was booked..I usually stay at the Candlewood..but Saturday night's price was outrageous. So we decided to try here for $95/night. If I wasn't so stubborn I could of got it a days earlier at a better price of $79/night. I can only speak for us. The place was really nice. Our room was very very clean. The king bed and pillows was like a  cloud! The kitchenette was an added plus! Everything was perfect and at a better price. They're great competition for Candlewood..$140/night without taxes that is vs. $79-$95/night smoking or non!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r456651767-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>456651767</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>Great People make a nice stay</t>
+  </si>
+  <si>
+    <t>I'm pleased to say I have enjoyed my stays at this hotel. The front desk agent Erica checks me in every Monday afternoon she is always nice and friendly. I have six guys working with me and we all show up at the same time to check in she keeps her cool and gets us through check in and in a rom in no time. She makes sure we are took care of for our reservations from week to week and we never have a problem getting a room. The rooms are always nice and it is convenient that there is fast food and a Winn Dixie within walking distance. So if your working this side of New Orleans check it out. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Jose G, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded February 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2017</t>
+  </si>
+  <si>
+    <t>I'm pleased to say I have enjoyed my stays at this hotel. The front desk agent Erica checks me in every Monday afternoon she is always nice and friendly. I have six guys working with me and we all show up at the same time to check in she keeps her cool and gets us through check in and in a rom in no time. She makes sure we are took care of for our reservations from week to week and we never have a problem getting a room. The rooms are always nice and it is convenient that there is fast food and a Winn Dixie within walking distance. So if your working this side of New Orleans check it out. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r452478439-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>452478439</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Very good accomodations!</t>
+  </si>
+  <si>
+    <t>This hotel was quiet and clean. Staff was very professional and the bed and pillows were very comfortable. It is located next to a Waffle House and a Winn Dixie grocery. All kitchen utensils were included.  I would definitely stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jose G, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was quiet and clean. Staff was very professional and the bed and pillows were very comfortable. It is located next to a Waffle House and a Winn Dixie grocery. All kitchen utensils were included.  I would definitely stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r445761900-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>445761900</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Professional staff</t>
+  </si>
+  <si>
+    <t>Room had basic kitchen, microwave and fridge, a little tired but functional.  No noise at all from other guests and next to a supermarket which is good if self-catering.  Opening windows, which is rare, however there is a nearby train which seemed to run throught the night and sounded its 'horn' for ages. With the window closed the noise did not disturb.The reception staff were helpful and friendly.  Good clean guest laundry.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Jose G, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded December 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2016</t>
+  </si>
+  <si>
+    <t>Room had basic kitchen, microwave and fridge, a little tired but functional.  No noise at all from other guests and next to a supermarket which is good if self-catering.  Opening windows, which is rare, however there is a nearby train which seemed to run throught the night and sounded its 'horn' for ages. With the window closed the noise did not disturb.The reception staff were helpful and friendly.  Good clean guest laundry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r440900645-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>440900645</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Family in for holidays</t>
+  </si>
+  <si>
+    <t>Booked this spot for family in for holidays and they enjoyed the clean room and safe feeling being away from city but close enough for events they wanted to attend. Great quality for the price. Will be booking for family in future.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Jose G, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Booked this spot for family in for holidays and they enjoyed the clean room and safe feeling being away from city but close enough for events they wanted to attend. Great quality for the price. Will be booking for family in future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r437217405-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>437217405</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>I absolutely loved the hotel! The people were awesome! Erica, the front desk worker, was truly a blessing! She made sure everything was okay and on point! I truly loved her! The rooms were clean! I loved the area, and there is a waffle house right beside it and a daquri Shoppe across the street. Again, Erica deserves a raise! Kudos to her! I will be definitely staying here again! I took a picture with her to let everyone know how sweet of person she is and how great of worker she is!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jose G, Manager at Suburban Extended Stay Avondale, responded to this reviewResponded November 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2016</t>
+  </si>
+  <si>
+    <t>I absolutely loved the hotel! The people were awesome! Erica, the front desk worker, was truly a blessing! She made sure everything was okay and on point! I truly loved her! The rooms were clean! I loved the area, and there is a waffle house right beside it and a daquri Shoppe across the street. Again, Erica deserves a raise! Kudos to her! I will be definitely staying here again! I took a picture with her to let everyone know how sweet of person she is and how great of worker she is!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r433987795-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>433987795</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Good for Price</t>
+  </si>
+  <si>
+    <t>It was clean, beds were soft. We stay here over Halloween weekend because everything was booked in the city as well as surrounding area. The hotel is next to a waffle house which is super convenient. Also a family dollar, dollar general,  winn dixie, McDonalds, Subway, Wendys, and many gas stations are along the strip. Overall quiet, safe seeming place (nevermind an incident at the waffle ..it could happen anywhere). The staff was friendly and everthing worked. Took us about 20 minutes to get to the French Quarter. Uber was also available. I would recommend.  It is not Candlewood which was on the other side of the waffle but it served us nicely.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Jose G, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>It was clean, beds were soft. We stay here over Halloween weekend because everything was booked in the city as well as surrounding area. The hotel is next to a waffle house which is super convenient. Also a family dollar, dollar general,  winn dixie, McDonalds, Subway, Wendys, and many gas stations are along the strip. Overall quiet, safe seeming place (nevermind an incident at the waffle ..it could happen anywhere). The staff was friendly and everthing worked. Took us about 20 minutes to get to the French Quarter. Uber was also available. I would recommend.  It is not Candlewood which was on the other side of the waffle but it served us nicely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r432975600-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>432975600</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Ants in my bed</t>
+  </si>
+  <si>
+    <t>On October 30 my husband and i came down from texas to a family gathering here in avondale, so we decided to stay at the Suburban, and thereafter the visit in the hotel went down hill from there. As we slept throughout the night my husband and I were bit by red ants in our bed. SO at checkout time i showed the pics to (Errca) she called the supervisor of  housekeeping (Daijzhna) and thereafter the GM was called  (Jose Galmato) and he just told them to give us another room and we had to paid for that room that was very  unfair. HERE ARE SOME PICS! Contact phone for more information is 409-795-7002 I will take this further.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jose G, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>On October 30 my husband and i came down from texas to a family gathering here in avondale, so we decided to stay at the Suburban, and thereafter the visit in the hotel went down hill from there. As we slept throughout the night my husband and I were bit by red ants in our bed. SO at checkout time i showed the pics to (Errca) she called the supervisor of  housekeeping (Daijzhna) and thereafter the GM was called  (Jose Galmato) and he just told them to give us another room and we had to paid for that room that was very  unfair. HERE ARE SOME PICS! Contact phone for more information is 409-795-7002 I will take this further.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r430040150-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>430040150</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing customer service </t>
+  </si>
+  <si>
+    <t>The Candlewood suites right next door gave my fiance and I's room away without calling us and I confirmed it with a phone call that morning, and they authorized my card!!. Mind you both of us are IHG employees. They sent us to your hotel and as soon as we walked in Ms. Alayna at the front desk greeted us and helped us out so gracefully and professionally. She was so nice and sweet!! . After the service I received at Candlewood it was a breath of fresh air to get greeted by her! The room was perfect and the bed was VERY comfortable! Thank you guys for accommodating us for the incompetence of Candlewood suites. We REALLY appreciate it! ️ ️ MoreShow less</t>
+  </si>
+  <si>
+    <t>Jose G, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>The Candlewood suites right next door gave my fiance and I's room away without calling us and I confirmed it with a phone call that morning, and they authorized my card!!. Mind you both of us are IHG employees. They sent us to your hotel and as soon as we walked in Ms. Alayna at the front desk greeted us and helped us out so gracefully and professionally. She was so nice and sweet!! . After the service I received at Candlewood it was a breath of fresh air to get greeted by her! The room was perfect and the bed was VERY comfortable! Thank you guys for accommodating us for the incompetence of Candlewood suites. We REALLY appreciate it! ️ ️ More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r421033042-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>421033042</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Time Away</t>
+  </si>
+  <si>
+    <t>The room was actually clean and smoke free and I slept like a baby with the easiest check out even thought my front counter rep was being trained it went seamlessly.  Thank you ladies for being so Nice and Professional. That Sunday I checked in for a much needed rest and got just that with no disturbance from the pool/ or uncleanliness like previously MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Jose G, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded September 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2016</t>
+  </si>
+  <si>
+    <t>The room was actually clean and smoke free and I slept like a baby with the easiest check out even thought my front counter rep was being trained it went seamlessly.  Thank you ladies for being so Nice and Professional. That Sunday I checked in for a much needed rest and got just that with no disturbance from the pool/ or uncleanliness like previously More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r406270416-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>406270416</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>My husband and I had just gotten off our cruise and had a swamp tour later in the day. We wanted to stay close to the tour and away from the hustle and bustle of New Orleans. We found this place by going to the visitor center in westwego. We got to the hotel at 10:15am and they had no problem letting us check in. The room was small but very cozy! It had a full size refrigerator, microwave, stove, and included all pots, pans, and utensils. It was quiet and heard no other neighbors. I would defiantly recommend this hotel to others. It also had a gym, small computer area and an outside pool. Very friendly staff!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Jose G, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I had just gotten off our cruise and had a swamp tour later in the day. We wanted to stay close to the tour and away from the hustle and bustle of New Orleans. We found this place by going to the visitor center in westwego. We got to the hotel at 10:15am and they had no problem letting us check in. The room was small but very cozy! It had a full size refrigerator, microwave, stove, and included all pots, pans, and utensils. It was quiet and heard no other neighbors. I would defiantly recommend this hotel to others. It also had a gym, small computer area and an outside pool. Very friendly staff!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r382020192-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>382020192</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Quiet and inexpensive!!!</t>
+  </si>
+  <si>
+    <t>Worked in area and found this inexpensive, quite,clean and well staffed motel. One plus is the grocery store across the parking lot. This a plus in a extended stay motel with a kitchen. Everything worked  and had no problems for a 3-day stay</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r380693542-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>380693542</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Great Fron Desk Service...Small but Nicely equipped rooms- Clean</t>
+  </si>
+  <si>
+    <t>I cant say enough about the professionalism of Erica at the front desk. After working all day and looking at several inferior locations in this market it was very refreshing to work with someone that actually cared about solving my problem of a place to stay for several weeks...Erica was great and i am a happy camper...Great place too!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r379282461-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>379282461</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Definitely not staying here again. Or any other Choice hotel, if there is another option.</t>
+  </si>
+  <si>
+    <t>My partner, friends, and I decided to stay here the night before a cruise out of New Orleans. The price was decent and the description had all the amenities we were looking for. There is a grocery store located just next door, and a drive-thru daiquiri place just across the street. What more could you want??
+Check-in was not too bad, other than having to stand around in a crowded lobby (no seating) that didn't have good air-conditioning. Fortunately, it didn't take too long to actually check in.
+I had booked two non-smoking queen rooms... one for my partner and I, and one for our three friends to share. Our friends' room was huge! Nicely air-conditioned, as well.
+Our room, on the other hand, was very tiny in comparison. Not a big deal for a one night stay. In fact, the small room, and even the lack of counter space in the bathroom, were not our issues.
+Imagine staying in a hotel room with no air condition, nor a fan, in the New Orleans heat and humidity. That was our experience.  Our air conditioning was broken in our room, and we were told that maintenance was aware of the problem and 'working on it'. Okay.... so how about another room? Nope... none available. Then, add to this the fact that the room, and in fact, the entire hotel, reeked of cigarette smoke. I really don't know how they could advertise...My partner, friends, and I decided to stay here the night before a cruise out of New Orleans. The price was decent and the description had all the amenities we were looking for. There is a grocery store located just next door, and a drive-thru daiquiri place just across the street. What more could you want??Check-in was not too bad, other than having to stand around in a crowded lobby (no seating) that didn't have good air-conditioning. Fortunately, it didn't take too long to actually check in.I had booked two non-smoking queen rooms... one for my partner and I, and one for our three friends to share. Our friends' room was huge! Nicely air-conditioned, as well.Our room, on the other hand, was very tiny in comparison. Not a big deal for a one night stay. In fact, the small room, and even the lack of counter space in the bathroom, were not our issues.Imagine staying in a hotel room with no air condition, nor a fan, in the New Orleans heat and humidity. That was our experience.  Our air conditioning was broken in our room, and we were told that maintenance was aware of the problem and 'working on it'. Okay.... so how about another room? Nope... none available. Then, add to this the fact that the room, and in fact, the entire hotel, reeked of cigarette smoke. I really don't know how they could advertise any of those rooms being 'non-smoking', considering that the hallways and elevator constantly smelled of cigarette smoke. Oh, and there was zero air conditioning in the elevator, as well.So, ultimately, we were stuck in a smelly room with faulty a/c, even though the staff was aware of the problem. Maintenance never showed up to our room, and we were never even offered a fan.Needless to say, we did not sleep. At all.On the bright side, the bed was pretty comfortable, and the fridge is full-sized if you need to stay awhile. However, the 'pros' never even came close to outweighing the 'cons' at this hotel.Upon check-out the next morning, we mentioned the horrible night we'd experienced and received no comment whatsoever. No 'I'm sorry'. No offer of a partial refund or anything. Not even a discount for a future stay.'Part two' of this dreadful experience came from the absolutely horrible customer service from Choice Hotels.  We called them as soon as we left the hotel and were on hold for 30 minutes. We finally just hung up and decided to contact them after the cruise.  Which we did.... several times... before finally getting to speak to someone. The hold times were always over 20 minutes, no matter what time we called. Finally, after several conversations with Choice Hotels customer service, they offered to add 6,000 points to our Choice Rewards account. Which, I might add, isn't nearly enough to book a hotel room in most places.Their reasoning for comping only 6,000 points is that this amount of points would be enough to book that same hotel again in the future. Um... no thanks. Besides, we don't even live in the same state, so when would we ever have the opportunity to book that hotel again? (As if we would!)I am not saying I will never stay in a Choice hotel again, because sometimes that is the only option, but if there are other places to stay, we will not choose Choice hotels. NOT because the hotels themselves are all bad,...(this is actually the first truly bad experience I've had with Choice hotels)... but because if something goes wrong, customer service is a nightmare!I rarely leave bad reviews for anything. I'm a very understanding person who gets that sometimes things just go wrong and it's really no one's fault. I even tip well for mediocre service in restaurants... because I know people just have a bad day sometimes. So, for me to leave a negative review, it has to be really bad. I am not saying you should never stay at this hotel, as I'm sure many people have stayed there and had a good experience. I am simply giving fair warning about the lack of good customer service both at the hotel, as well as at Choice hotels in general.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>My partner, friends, and I decided to stay here the night before a cruise out of New Orleans. The price was decent and the description had all the amenities we were looking for. There is a grocery store located just next door, and a drive-thru daiquiri place just across the street. What more could you want??
+Check-in was not too bad, other than having to stand around in a crowded lobby (no seating) that didn't have good air-conditioning. Fortunately, it didn't take too long to actually check in.
+I had booked two non-smoking queen rooms... one for my partner and I, and one for our three friends to share. Our friends' room was huge! Nicely air-conditioned, as well.
+Our room, on the other hand, was very tiny in comparison. Not a big deal for a one night stay. In fact, the small room, and even the lack of counter space in the bathroom, were not our issues.
+Imagine staying in a hotel room with no air condition, nor a fan, in the New Orleans heat and humidity. That was our experience.  Our air conditioning was broken in our room, and we were told that maintenance was aware of the problem and 'working on it'. Okay.... so how about another room? Nope... none available. Then, add to this the fact that the room, and in fact, the entire hotel, reeked of cigarette smoke. I really don't know how they could advertise...My partner, friends, and I decided to stay here the night before a cruise out of New Orleans. The price was decent and the description had all the amenities we were looking for. There is a grocery store located just next door, and a drive-thru daiquiri place just across the street. What more could you want??Check-in was not too bad, other than having to stand around in a crowded lobby (no seating) that didn't have good air-conditioning. Fortunately, it didn't take too long to actually check in.I had booked two non-smoking queen rooms... one for my partner and I, and one for our three friends to share. Our friends' room was huge! Nicely air-conditioned, as well.Our room, on the other hand, was very tiny in comparison. Not a big deal for a one night stay. In fact, the small room, and even the lack of counter space in the bathroom, were not our issues.Imagine staying in a hotel room with no air condition, nor a fan, in the New Orleans heat and humidity. That was our experience.  Our air conditioning was broken in our room, and we were told that maintenance was aware of the problem and 'working on it'. Okay.... so how about another room? Nope... none available. Then, add to this the fact that the room, and in fact, the entire hotel, reeked of cigarette smoke. I really don't know how they could advertise any of those rooms being 'non-smoking', considering that the hallways and elevator constantly smelled of cigarette smoke. Oh, and there was zero air conditioning in the elevator, as well.So, ultimately, we were stuck in a smelly room with faulty a/c, even though the staff was aware of the problem. Maintenance never showed up to our room, and we were never even offered a fan.Needless to say, we did not sleep. At all.On the bright side, the bed was pretty comfortable, and the fridge is full-sized if you need to stay awhile. However, the 'pros' never even came close to outweighing the 'cons' at this hotel.Upon check-out the next morning, we mentioned the horrible night we'd experienced and received no comment whatsoever. No 'I'm sorry'. No offer of a partial refund or anything. Not even a discount for a future stay.'Part two' of this dreadful experience came from the absolutely horrible customer service from Choice Hotels.  We called them as soon as we left the hotel and were on hold for 30 minutes. We finally just hung up and decided to contact them after the cruise.  Which we did.... several times... before finally getting to speak to someone. The hold times were always over 20 minutes, no matter what time we called. Finally, after several conversations with Choice Hotels customer service, they offered to add 6,000 points to our Choice Rewards account. Which, I might add, isn't nearly enough to book a hotel room in most places.Their reasoning for comping only 6,000 points is that this amount of points would be enough to book that same hotel again in the future. Um... no thanks. Besides, we don't even live in the same state, so when would we ever have the opportunity to book that hotel again? (As if we would!)I am not saying I will never stay in a Choice hotel again, because sometimes that is the only option, but if there are other places to stay, we will not choose Choice hotels. NOT because the hotels themselves are all bad,...(this is actually the first truly bad experience I've had with Choice hotels)... but because if something goes wrong, customer service is a nightmare!I rarely leave bad reviews for anything. I'm a very understanding person who gets that sometimes things just go wrong and it's really no one's fault. I even tip well for mediocre service in restaurants... because I know people just have a bad day sometimes. So, for me to leave a negative review, it has to be really bad. I am not saying you should never stay at this hotel, as I'm sure many people have stayed there and had a good experience. I am simply giving fair warning about the lack of good customer service both at the hotel, as well as at Choice hotels in general.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r377169206-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>377169206</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Reunion </t>
+  </si>
+  <si>
+    <t>A nice hotel and Erica at the front desk was very nice. Erica got us in quickly and the hotel was nice and clean. Would definitely stay again. Was quiet and not too expensive can't beat it. Lots of places to eat right around the hotel.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r373863270-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>373863270</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Not bad at all.😀</t>
+  </si>
+  <si>
+    <t>I stay at this extended stay often due to my job.. The rooms are always clean ( I don't think I have experienced a time when it was not clean).. . The carpet, lighting and appliances are all updated..I never stay on the 3 floor because it caters to smokers but overall, I always have a pleasant stay.. And the staff at the hotel are professional.. They also have a small pool and a quaint little exercise room with a tread mill and weight</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r373055038-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>373055038</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>Erica at Suburban Extended Stay in Avondale was quite wonderful. She was polite and courteous and it really seemed like she enjoyed her job. The staff and stay was pleasant. We didn't have any issues and the fact that a Waffle House was next door was a plus. No complaints fom us.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r372574717-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>372574717</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Erica and the staff were GREAT and extremely helpful</t>
+  </si>
+  <si>
+    <t>First thing first, through choice hotels they only had smoking rooms available to use for the free room. There was no way in the world that my husband and I were going to stay in a smoking room so the choice hotels representative called this hotel to see if they would be able to allow us to switch to a non smoking room upon check in. Erica was working the front desk that day and agreed to allow us to switch rooms. Upon arriving at the hotel Erica was very pleasant and helpful. She checked us in and not only have us a non smoking room but she also gave us a room with a very nice view! 
+The room itself was actually really nice to be an extended stay. We have always avoided extended stay hotels because they are usual not well kept but this hotel truly exceeded our expectations. 
+ONE COMPLAINT ONLY: The bathtub had what appeared to be pubic hair in it which grossed my husband and I out totally and almost made us change our minds about the hotel entirely. After making the night hotel clerk of the issue (forgot the gentlemen's name) he advised us that the hotel did not have 24 hr housekeeping but he would gladly go up and clean it himself!! My husband and I were completely shocked and elated that he would go above and beyond to assist us in making...First thing first, through choice hotels they only had smoking rooms available to use for the free room. There was no way in the world that my husband and I were going to stay in a smoking room so the choice hotels representative called this hotel to see if they would be able to allow us to switch to a non smoking room upon check in. Erica was working the front desk that day and agreed to allow us to switch rooms. Upon arriving at the hotel Erica was very pleasant and helpful. She checked us in and not only have us a non smoking room but she also gave us a room with a very nice view! The room itself was actually really nice to be an extended stay. We have always avoided extended stay hotels because they are usual not well kept but this hotel truly exceeded our expectations. ONE COMPLAINT ONLY: The bathtub had what appeared to be pubic hair in it which grossed my husband and I out totally and almost made us change our minds about the hotel entirely. After making the night hotel clerk of the issue (forgot the gentlemen's name) he advised us that the hotel did not have 24 hr housekeeping but he would gladly go up and clean it himself!! My husband and I were completely shocked and elated that he would go above and beyond to assist us in making our stay enjoyable. He also said he will clean it to be sure we are satisfied! That really made us fall in love with the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>First thing first, through choice hotels they only had smoking rooms available to use for the free room. There was no way in the world that my husband and I were going to stay in a smoking room so the choice hotels representative called this hotel to see if they would be able to allow us to switch to a non smoking room upon check in. Erica was working the front desk that day and agreed to allow us to switch rooms. Upon arriving at the hotel Erica was very pleasant and helpful. She checked us in and not only have us a non smoking room but she also gave us a room with a very nice view! 
+The room itself was actually really nice to be an extended stay. We have always avoided extended stay hotels because they are usual not well kept but this hotel truly exceeded our expectations. 
+ONE COMPLAINT ONLY: The bathtub had what appeared to be pubic hair in it which grossed my husband and I out totally and almost made us change our minds about the hotel entirely. After making the night hotel clerk of the issue (forgot the gentlemen's name) he advised us that the hotel did not have 24 hr housekeeping but he would gladly go up and clean it himself!! My husband and I were completely shocked and elated that he would go above and beyond to assist us in making...First thing first, through choice hotels they only had smoking rooms available to use for the free room. There was no way in the world that my husband and I were going to stay in a smoking room so the choice hotels representative called this hotel to see if they would be able to allow us to switch to a non smoking room upon check in. Erica was working the front desk that day and agreed to allow us to switch rooms. Upon arriving at the hotel Erica was very pleasant and helpful. She checked us in and not only have us a non smoking room but she also gave us a room with a very nice view! The room itself was actually really nice to be an extended stay. We have always avoided extended stay hotels because they are usual not well kept but this hotel truly exceeded our expectations. ONE COMPLAINT ONLY: The bathtub had what appeared to be pubic hair in it which grossed my husband and I out totally and almost made us change our minds about the hotel entirely. After making the night hotel clerk of the issue (forgot the gentlemen's name) he advised us that the hotel did not have 24 hr housekeeping but he would gladly go up and clean it himself!! My husband and I were completely shocked and elated that he would go above and beyond to assist us in making our stay enjoyable. He also said he will clean it to be sure we are satisfied! That really made us fall in love with the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r358850438-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>358850438</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Wonderful</t>
+  </si>
+  <si>
+    <t>Being a Philadelphia "mainliner" usually says one is a stuck up jerk.. With Hotels at $350+ the week we had a conference in New Orleans. I picked this hotel because after reading the reviews it seems like a great place. located about a $30 taxi ride outside of  New Orleans and next to a waffle house, what a perfect combination. The staff was wonderful, friendly and helpful. When I got  to Tampa on my second leg of my trip, I realized I did not have my AMEX card. when I got to my Clearwater Hotel I found an email saying KIM had found my card and to call the hotel. When I called Kim asked for my address which I gladly gave her. When I arrived back home in Philadelphia, my car was there for me.. KIM IS A GEM.. If I ever go to NO again, I will stay at this hotel....... Great friendly staff, Thanks Kim for your honestly....MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Being a Philadelphia "mainliner" usually says one is a stuck up jerk.. With Hotels at $350+ the week we had a conference in New Orleans. I picked this hotel because after reading the reviews it seems like a great place. located about a $30 taxi ride outside of  New Orleans and next to a waffle house, what a perfect combination. The staff was wonderful, friendly and helpful. When I got  to Tampa on my second leg of my trip, I realized I did not have my AMEX card. when I got to my Clearwater Hotel I found an email saying KIM had found my card and to call the hotel. When I called Kim asked for my address which I gladly gave her. When I arrived back home in Philadelphia, my car was there for me.. KIM IS A GEM.. If I ever go to NO again, I will stay at this hotel....... Great friendly staff, Thanks Kim for your honestly....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r355777246-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>355777246</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>nice place to stay</t>
+  </si>
+  <si>
+    <t>pleasantly surprised .. clean rooms, helpful staff, a little hard to find. bed slept good and having a kitchen is always a money saver. even tho it is a pet friendly hotel the rooms are clean and well kept</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r352120994-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>352120994</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Helpful staff!</t>
+  </si>
+  <si>
+    <t>We booked a room at the Suburban Extended Stay for the night before the Rock N Roll New Orleans marathon. When we arrived, we found out that we were given a smoking, king bed room instead of the non-smoking, double room that we reserved. The hotel was said to be sold out, and another room was not available. Daisha took care of us, found us a double room and changed the bedding herself. The gentleman that worked the front desk during the night shift (I cannot remember his name), was also extremely kind and helpful. Everything worked out for our stay thanks to the wonderful staff, but when booking a room here, be sure to call and double check the reservation!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>We booked a room at the Suburban Extended Stay for the night before the Rock N Roll New Orleans marathon. When we arrived, we found out that we were given a smoking, king bed room instead of the non-smoking, double room that we reserved. The hotel was said to be sold out, and another room was not available. Daisha took care of us, found us a double room and changed the bedding herself. The gentleman that worked the front desk during the night shift (I cannot remember his name), was also extremely kind and helpful. Everything worked out for our stay thanks to the wonderful staff, but when booking a room here, be sure to call and double check the reservation!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r350138769-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>350138769</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Daisha is the best! ! ! ! She goes above and beyond to help make your stay great. She always has a smile on her face and kind words to say. I would recommend this hotel to anyone who is looking for a place to stay with all the comforts of home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r348681278-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>348681278</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel, the hotel is very clean, and very quiet to be on a major road. I had an issue with the TV not working, the staff fixed it, and even reduced the two day stay, for the problem. The price was great, with the discount I had. It's right next to a Piggly Wiggly, and only 15 min, to Downtown. The staff is really great. Thank you Kim and Erica.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r348190096-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>348190096</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daisha was the best represented I ever met  very kind and respectful to the guests that walk through she talks to u as she check u in makes u  fill very comfortable   staying here.      The hotel is very clean                  thanks Damien </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r346986083-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>346986083</t>
+  </si>
+  <si>
+    <t>02/11/2016</t>
+  </si>
+  <si>
+    <t>Linda &amp; Howard Baynard</t>
+  </si>
+  <si>
+    <t>We truly enjoyed our stay at Suburban Extended Stay Hotel. It was a warm and cozy environment.Making our stay even more comfortable and enjoying was the wonderful service given us by Kimberly Roberson. Kim was extremely helpful ,enabling us to get around  an unfamiliar state during Mardi Gras.Personality, friendly, and accommodating, witty, and friendly.Thank you Ms. Kim for making our Louisiana stay more enjoyable than ever.Ms. Roberson is a "Great" asset to The Suburban Extended Stay Hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r346548773-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>346548773</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Excellent Staff</t>
+  </si>
+  <si>
+    <t>The service here is outstanding. We ended up in New Orleans not realizing it was the week of Mardi Gras. Arrived at the Suburban Extended Stay in Avondale before check in time totally exhausted. The sweet young lady at the front desk instructed housekeeping to get a room ready for us as soon as possible. We really appreciated the hospitality.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r346232072-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>346232072</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Loved being in N.O.</t>
+  </si>
+  <si>
+    <t>I truly enjoyed my visit to New Orleans. Thanks to Ms. Erica and the rest of the staff for all the helpful tips on where to eat, where to go and how to maneuver easily around the city. You folks were wonderful.  Enjoyed my stay in New Orleans. The hotel was very clean and it is Convenient to Downtown.  They had the best hotel rates in the area.  There was plenty to do and see.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r345961250-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>345961250</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs.Kimberly Was awesome </t>
+  </si>
+  <si>
+    <t>Had a great time here..bed were excellent,laundry room and fitness room!Have everything you need and more to cook and have a great represent ice Mrs.Kimberly she's very helpful and very kind(wish more ppl was Like her in customer service)!Definitely recommend Suburban extended stay!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r344746838-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>344746838</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>Very good customer service</t>
+  </si>
+  <si>
+    <t>My reservations were set up well by Erica. All staff were very hospitable and accommodating. when in town again would surely stay there again!.Satisfied customer from Detroit Mi. Location good for access to highway 90. Resturants nearby. If  ice buckets were in rooms it would better. Loved being across the street from Daiquri shop, next door to Winn Dixie market, and Waffle House.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r343783432-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>343783432</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>Fantastic Customer Service</t>
+  </si>
+  <si>
+    <t>As a contractor I spend a lot of time on the road all over the country.  Whenever I know my stay will be lengthy I look for an extended stay accommodation.  To date this hotel rates as the best all around.  Front desk personnel are always courteous and helpful.  After 9 mos. they consider me one of the family, and after a long day, it is refreshing to be greeted by name with a smile and they want to know how my day went.  Not too different than being at home.     The rooms are modern, roomy, and comfortable with cleanliness being a benchmark.  If I could pick only one standout feature it will be the lady who services my room weekly - Stella Norman.  She consistently spends extra effort make my room not only clean, but comfortable.  How often has anyone stayed in a hotel where you felt appreciated?  Yea, the Suburban Extended Stay Avondale is really the place to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>As a contractor I spend a lot of time on the road all over the country.  Whenever I know my stay will be lengthy I look for an extended stay accommodation.  To date this hotel rates as the best all around.  Front desk personnel are always courteous and helpful.  After 9 mos. they consider me one of the family, and after a long day, it is refreshing to be greeted by name with a smile and they want to know how my day went.  Not too different than being at home.     The rooms are modern, roomy, and comfortable with cleanliness being a benchmark.  If I could pick only one standout feature it will be the lady who services my room weekly - Stella Norman.  She consistently spends extra effort make my room not only clean, but comfortable.  How often has anyone stayed in a hotel where you felt appreciated?  Yea, the Suburban Extended Stay Avondale is really the place to be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r342216253-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>342216253</t>
+  </si>
+  <si>
+    <t>01/23/2016</t>
+  </si>
+  <si>
+    <t>Best hotel</t>
+  </si>
+  <si>
+    <t>It's my home away from home, Kimberly Robertson has been one the best to accommodate me with my rooms, never had any issues with payments nor dirty rooms lol I advise any one to check in with this hotel</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r341168827-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>341168827</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>I stay here 3 weeks out of every month as a contractor at a nearby plant. I find the rooms clean and comfortable. The staff are always courteous and engaging. Darcelle at the front desk even helped me set up my rewards account. The WiFi is capable at around 20 mbps. Keep in mind that this is an extended stay hotel. The cleaning service only comes to your room once a week, unless you opt to pay a small up charge for daily 'light touch' attention. Even considering this charge, the value is still excellent, particularly if you have an extended stay, since that can affect your rate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r334431342-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>334431342</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>Mixup in registration.</t>
+  </si>
+  <si>
+    <t>I had made reservations through an online booking service, which were screwed up when I arrived.My original reservation was for 8 rooms (6 on one reservation and two other single room reservations), however, when we arrived the reservation somehow only had us booked for 2 rooms.  The young lady at the front desk, Darcelle, worked diligently with me and the online service to get us the rooms needed as we were not in a position to make other reservations and were very tired from a 6 hour road trip to this destination.  I was very please with her for how professional she continued to be throughout the situation and how she patiently worked to take care of us.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I had made reservations through an online booking service, which were screwed up when I arrived.My original reservation was for 8 rooms (6 on one reservation and two other single room reservations), however, when we arrived the reservation somehow only had us booked for 2 rooms.  The young lady at the front desk, Darcelle, worked diligently with me and the online service to get us the rooms needed as we were not in a position to make other reservations and were very tired from a 6 hour road trip to this destination.  I was very please with her for how professional she continued to be throughout the situation and how she patiently worked to take care of us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r332508658-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>332508658</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>my stay</t>
+  </si>
+  <si>
+    <t>My stay was the best .All of the front desk people were polite and helpful, espectally Erica Nicholas. I stayed 5 days because we had a death in the family. I write reviews but I thought I has to do this. Your guest will love this hotel because of the price and the staff. Now I think of this hotel as my home away from home.Linda D.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Suburban170, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>My stay was the best .All of the front desk people were polite and helpful, espectally Erica Nicholas. I stayed 5 days because we had a death in the family. I write reviews but I thought I has to do this. Your guest will love this hotel because of the price and the staff. Now I think of this hotel as my home away from home.Linda D.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r332254916-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>332254916</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>I never leave reviews but I could not let such bad service and rudeness go without saying anything. I stayed here while working at the chemical plant in waggaman with some other Co workers and everyone of them had the same issue with the lady name Darcelle she is very rude and seem to care less about helping. All of the guys that was staying we have all found another hotel and will not be returning our business there. Thank your front desk Darcelle for losing 8 rooms for a year. Very bad for business.....Thanks Tammy for helping out!MoreShow less</t>
+  </si>
+  <si>
+    <t>I never leave reviews but I could not let such bad service and rudeness go without saying anything. I stayed here while working at the chemical plant in waggaman with some other Co workers and everyone of them had the same issue with the lady name Darcelle she is very rude and seem to care less about helping. All of the guys that was staying we have all found another hotel and will not be returning our business there. Thank your front desk Darcelle for losing 8 rooms for a year. Very bad for business.....Thanks Tammy for helping out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r331421389-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>331421389</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>Karina B</t>
+  </si>
+  <si>
+    <t>I came with a friend for a pharmacy conference and we stayed for 5 days. This is a great place to stay. It's affordable and only 20ish minutes outside of NOLA. The facility was clean and the room was spacious. This isn't a regular hotel so housekeeping will not tidy the room for you (perhaps by request?). The entire staff was friendly (shoutout to Erika Nichole at the front desk!)and helpful. There is a Waffle House right next door, a supermarket , Popeyes, Wendy's and McDonalds all within walking distance. Overall a great stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>I came with a friend for a pharmacy conference and we stayed for 5 days. This is a great place to stay. It's affordable and only 20ish minutes outside of NOLA. The facility was clean and the room was spacious. This isn't a regular hotel so housekeeping will not tidy the room for you (perhaps by request?). The entire staff was friendly (shoutout to Erika Nichole at the front desk!)and helpful. There is a Waffle House right next door, a supermarket , Popeyes, Wendy's and McDonalds all within walking distance. Overall a great stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r326373030-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>326373030</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>GREAT SERVICE GIVEN</t>
+  </si>
+  <si>
+    <t>I was looking for a room close to NEW ORLEANS LA but not in the city. Because I wanted to send my birthday 12/31 in NEW ORLEANS . I'M planning on getting married also. I called to book a room at the extended stay in Avondale LA. A very friendly and helpful young lady whos name is TAMMY answered the phone I told her what I needed. her hotel was farther away She was very helpful  from  where I wanted to stay. She was on the phone with me for twenty mins. until she found one for me. She was very FRIENDLY,AWESOME,HELPFUL and a pleasure to talk with. She went out of her way to help me. I wish there were more PEOPLE LIKE TAMMY in this world.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Suburban170, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>I was looking for a room close to NEW ORLEANS LA but not in the city. Because I wanted to send my birthday 12/31 in NEW ORLEANS . I'M planning on getting married also. I called to book a room at the extended stay in Avondale LA. A very friendly and helpful young lady whos name is TAMMY answered the phone I told her what I needed. her hotel was farther away She was very helpful  from  where I wanted to stay. She was on the phone with me for twenty mins. until she found one for me. She was very FRIENDLY,AWESOME,HELPFUL and a pleasure to talk with. She went out of her way to help me. I wish there were more PEOPLE LIKE TAMMY in this world.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r323150798-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>323150798</t>
+  </si>
+  <si>
+    <t>10/30/2015</t>
+  </si>
+  <si>
+    <t>Don't Stay Here If You Don't Have To..</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 4 nights last month and it was interesting to say the least.Pros: - Centrally located with restaurants (Waffle House right next door), grocery stores and gas stations, etc close by- Close to NOLA Motorsports Park - Friendly front desk staff- I appreciate the attempt to try and modernize the rooms with the newer carpeting, bedding, etc. Cons:- Rooms are not cleaned to standards. Beer can was still on my counter upon check in, dust and dirt are left on counters/lamp shades, etc. You can tell there is not any attention to detail (or effort) in cleaning the rooms- Hotel has a lot of visitors and people coming and going throughout all times of day/night. - Rooms overlook the parking lot where people like to hang out and party at night- 3rd floor smoking floor is obnoxiously smoky - so if you are a nonsmoker - I would not be on 3rd floor.- Overall management of hotel seems non-existentUnfortunately and Fortunately, I would not stay here again and definitely recommend the Candlewood Suites right next door. Its worth any incremental nightly cost than this hotel. Trust me.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Suburban170, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 4 nights last month and it was interesting to say the least.Pros: - Centrally located with restaurants (Waffle House right next door), grocery stores and gas stations, etc close by- Close to NOLA Motorsports Park - Friendly front desk staff- I appreciate the attempt to try and modernize the rooms with the newer carpeting, bedding, etc. Cons:- Rooms are not cleaned to standards. Beer can was still on my counter upon check in, dust and dirt are left on counters/lamp shades, etc. You can tell there is not any attention to detail (or effort) in cleaning the rooms- Hotel has a lot of visitors and people coming and going throughout all times of day/night. - Rooms overlook the parking lot where people like to hang out and party at night- 3rd floor smoking floor is obnoxiously smoky - so if you are a nonsmoker - I would not be on 3rd floor.- Overall management of hotel seems non-existentUnfortunately and Fortunately, I would not stay here again and definitely recommend the Candlewood Suites right next door. Its worth any incremental nightly cost than this hotel. Trust me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r318964729-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>318964729</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Awesome and clean</t>
+  </si>
+  <si>
+    <t>I love it here its homy comfortable and the people are so nice. I want to thank Ms.Stella for helping me with my trash and towels. I was so sick didnt feel like walking and she did it without any complaints or attitudes. Thanks Ms.StellaMoreShow less</t>
+  </si>
+  <si>
+    <t>I love it here its homy comfortable and the people are so nice. I want to thank Ms.Stella for helping me with my trash and towels. I was so sick didnt feel like walking and she did it without any complaints or attitudes. Thanks Ms.StellaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r316972107-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>316972107</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>All aboard</t>
+  </si>
+  <si>
+    <t>I had three rooms at this hotel and each room was nice.like a little apartment. The staff was very friendly and the front desk reneal do a great job. She had our crew checked in in less than five minutes. Awesome service from her.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had three rooms at this hotel and each room was nice.like a little apartment. The staff was very friendly and the front desk reneal do a great job. She had our crew checked in in less than five minutes. Awesome service from her.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r316428871-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>316428871</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>NASTY! NASTY!</t>
+  </si>
+  <si>
+    <t>This is not the first time my husband an I have stayed here at this hotel, he works here an at first it was nice but after coming back a few time the housekeeping is VERY PORE  the room we had once stayed in we wanted again they do NOT clean the bathrooms at all, all they do is put new towels in an they wasn't even clean they had body hair all over them the only thing they done was make the bed I know for a fact they don't even change the sheets because my son was with us at one time an he spilled his orange drink on the bed I let them know an apologized but the mess was still there 2 weeks later when we got the room again NASTY,NASTY hotel rooms MoreShow less</t>
+  </si>
+  <si>
+    <t>This is not the first time my husband an I have stayed here at this hotel, he works here an at first it was nice but after coming back a few time the housekeeping is VERY PORE  the room we had once stayed in we wanted again they do NOT clean the bathrooms at all, all they do is put new towels in an they wasn't even clean they had body hair all over them the only thing they done was make the bed I know for a fact they don't even change the sheets because my son was with us at one time an he spilled his orange drink on the bed I let them know an apologized but the mess was still there 2 weeks later when we got the room again NASTY,NASTY hotel rooms More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r311140481-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>311140481</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>working in area</t>
+  </si>
+  <si>
+    <t>this a great hotel ,enjoy the nice rooms kitchens are awesome and rooms very roomy this is a great place to stay if you like friendly service and great staff. reneal simmons is really good at her job she makes you want to leave a review...MoreShow less</t>
+  </si>
+  <si>
+    <t>this a great hotel ,enjoy the nice rooms kitchens are awesome and rooms very roomy this is a great place to stay if you like friendly service and great staff. reneal simmons is really good at her job she makes you want to leave a review...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r310950985-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>310950985</t>
+  </si>
+  <si>
+    <t>Always feels like home</t>
+  </si>
+  <si>
+    <t>My experience is always nice and pleasant here.Mrs Reneal Simmons always calls me by my name on site. She knowlegable of place and events happening in the area. The beds are amazing .  The small kitchen is perfect for preparing a quick dish. I love this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>My experience is always nice and pleasant here.Mrs Reneal Simmons always calls me by my name on site. She knowlegable of place and events happening in the area. The beds are amazing .  The small kitchen is perfect for preparing a quick dish. I love this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r301548125-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>301548125</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Everthing was fine except the visitors crawling on the wall.</t>
+  </si>
+  <si>
+    <t>I travel alot for work in the pipeline business...sometimes in the middle of nowhere. I've stayed in rat trap hotels to luxury suites. However, when traveling with the wife, I try to stay in nice places. We travel often to the West Bank of New Orleans, and usually stay at the Avondale Candlewood Suites. The Suburban Extended Stay was 2/3 the price and right next door, so we thought we'd try it for comparison. All was fine until my wife noticed roaches crawling up the wall. This doesn't bother me much, but, my wife freaked out, so our 1 night experiment was over. It's a good place, but the rooms, beds, and amenities are smaller than the hotel next door. Of course, the cost was $40 per night less. In conclusion, if the room rate is the deciding factor in your search, I think this place is OK. But if you are willing to pay 33% more, the Candlewood Suites is a much better option.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Suburban170, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2015</t>
+  </si>
+  <si>
+    <t>I travel alot for work in the pipeline business...sometimes in the middle of nowhere. I've stayed in rat trap hotels to luxury suites. However, when traveling with the wife, I try to stay in nice places. We travel often to the West Bank of New Orleans, and usually stay at the Avondale Candlewood Suites. The Suburban Extended Stay was 2/3 the price and right next door, so we thought we'd try it for comparison. All was fine until my wife noticed roaches crawling up the wall. This doesn't bother me much, but, my wife freaked out, so our 1 night experiment was over. It's a good place, but the rooms, beds, and amenities are smaller than the hotel next door. Of course, the cost was $40 per night less. In conclusion, if the room rate is the deciding factor in your search, I think this place is OK. But if you are willing to pay 33% more, the Candlewood Suites is a much better option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r289685065-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>289685065</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>very clean</t>
+  </si>
+  <si>
+    <t>great nice clean . And very nice workers.the one person that was there for weekend stay was .Ms. Nicole Perry,She was sweetest person ,she  ready likes her work,always smiling, very sweet. we went for a friends wedding so we didnt have to drive for home .WE live about hour or so away .It was 2min from the wedding.I would go back just because. Our door needed to be fixed ,We told Ms. Nicole and came in mins. the price for the weekend was so in our price range.MoreShow less</t>
+  </si>
+  <si>
+    <t>great nice clean . And very nice workers.the one person that was there for weekend stay was .Ms. Nicole Perry,She was sweetest person ,she  ready likes her work,always smiling, very sweet. we went for a friends wedding so we didnt have to drive for home .WE live about hour or so away .It was 2min from the wedding.I would go back just because. Our door needed to be fixed ,We told Ms. Nicole and came in mins. the price for the weekend was so in our price range.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r289351763-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>289351763</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connie </t>
+  </si>
+  <si>
+    <t>Love this place. They offer everything you would need. The manager Mrs Kimberly and general manager Mr Scott are so friendly.  Room was very clean and fresh. Housekeeping Miss Barbara the best. Brad and Sherell at the front desk can't be anymore helpful. My Husband and will stay nowhere but here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Love this place. They offer everything you would need. The manager Mrs Kimberly and general manager Mr Scott are so friendly.  Room was very clean and fresh. Housekeeping Miss Barbara the best. Brad and Sherell at the front desk can't be anymore helpful. My Husband and will stay nowhere but here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r286899569-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>286899569</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Yuck</t>
+  </si>
+  <si>
+    <t>My wife and I checked into this place.  Room cleaning here is not good.  First thing she found was that the garbage in the kitchen hadn't been emptied.  Then she found some toe nail clippings in the tub...and finally some debris and change in the corner of the room to the side of a light stand.  I'd recommend looking elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>Suburban170, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I checked into this place.  Room cleaning here is not good.  First thing she found was that the garbage in the kitchen hadn't been emptied.  Then she found some toe nail clippings in the tub...and finally some debris and change in the corner of the room to the side of a light stand.  I'd recommend looking elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r282737529-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>282737529</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Very nice place, I usually stay downtown New Orleans but changed plans to be close to Nola Motorsport and I was not disappointed. Great price, great staff the housekeeping lady Barbra and front desk rineal was exceptional. Will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice place, I usually stay downtown New Orleans but changed plans to be close to Nola Motorsport and I was not disappointed. Great price, great staff the housekeeping lady Barbra and front desk rineal was exceptional. Will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r282231850-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>282231850</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasted an hour </t>
+  </si>
+  <si>
+    <t>The person who took the photos deserves a metal ! We only lasted one hour then booked another hotel . The sheets were dirty ! The whole hotel filled with smoke . Front desk was rude ! Really bad area ! I am mad I even gave it a one ! Should be -10 ! Do not stay here ! MoreShow less</t>
+  </si>
+  <si>
+    <t>The person who took the photos deserves a metal ! We only lasted one hour then booked another hotel . The sheets were dirty ! The whole hotel filled with smoke . Front desk was rude ! Really bad area ! I am mad I even gave it a one ! Should be -10 ! Do not stay here ! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r271734781-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>271734781</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Enjoyable and friendly</t>
+  </si>
+  <si>
+    <t>My husband has been working in this area for 7 months.  We have visited 3 other hotels/motels in the area.  By far this stay has been the best of them all as far as meeting our needs and the friendliness of those working here.  Smiles are found everywhere!  From early in the morning, paying our invoice with Brad at the front desk to asking for various things at the desk later in the day from Sherell, the friendly attitude just keeps going.  The manager, Kimberlee was a joy to meet. Thank you Suburban for making this feel more like a home.  I would highly recommend staying here if you are ever in the area for vacation or business.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Suburban170, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>My husband has been working in this area for 7 months.  We have visited 3 other hotels/motels in the area.  By far this stay has been the best of them all as far as meeting our needs and the friendliness of those working here.  Smiles are found everywhere!  From early in the morning, paying our invoice with Brad at the front desk to asking for various things at the desk later in the day from Sherell, the friendly attitude just keeps going.  The manager, Kimberlee was a joy to meet. Thank you Suburban for making this feel more like a home.  I would highly recommend staying here if you are ever in the area for vacation or business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r264095799-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>264095799</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>I Love this hotel and will Stay Again....</t>
+  </si>
+  <si>
+    <t>This Hotel is Very Friendly and Home like I work in The Area But live out of of town so being away from home and staying here i look for Fimiliar and Friendly Faces  Its Always  Nice to come from work and stop at the desk and NIkita And Sherell are always Smiling and Nice ... I will Only Stay Here when am in town...MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>This Hotel is Very Friendly and Home like I work in The Area But live out of of town so being away from home and staying here i look for Fimiliar and Friendly Faces  Its Always  Nice to come from work and stop at the desk and NIkita And Sherell are always Smiling and Nice ... I will Only Stay Here when am in town...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r263351872-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>263351872</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Visiting friends</t>
+  </si>
+  <si>
+    <t>I've stayed in this place 2 times already. They are wonderful here. All the staff is nice and friendly. My room was clean and ready for me to fall asleep in. If you don't wan to pay a lot of money to stay in the French Quarter, then you should stay at this hotel. You will save money also by at least cooking and eating in your room, if that is what you want to do. The French Quarter is about 15 minutes away.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed in this place 2 times already. They are wonderful here. All the staff is nice and friendly. My room was clean and ready for me to fall asleep in. If you don't wan to pay a lot of money to stay in the French Quarter, then you should stay at this hotel. You will save money also by at least cooking and eating in your room, if that is what you want to do. The French Quarter is about 15 minutes away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r262314306-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>262314306</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Would definitely stay here again!!</t>
+  </si>
+  <si>
+    <t>I've been here for 4 months and feels like its home while I'm here working. Nikita at the front desk always  friendly and helpful when I need something. Always look forward to coming "home" after work. Highly recommended.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r261770941-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>261770941</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>My stay was Peaceful and  i enjoyed  friendly Frontsesk</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at the hotel very nice and friendly staff and the front desk Nikitagave me excellent directions to the nearest  Places to eat in your city.Room was cleaned and very  nice also .. I will b making more Reservations  at this hotel again in the near future</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r236520229-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>236520229</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Clean and affordable</t>
+  </si>
+  <si>
+    <t>Hotel is a few minutes outside of downtown New Orleans but of course you don't pay downtown prices. In fact it's a good 15 minutes or so from the French Quarter with good traffic but you pay less. We had a king bed no smoking on 2nd floor next to elevator. Room was clean water pressure was good. Could not hear elevator. Bed was comfortable. Room is climate controlled like your house on wall. Features full size fridge stove dish sink. Security is decent back door is locked saw several cameras etc. Will definitely be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Suburban170, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded October 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2014</t>
+  </si>
+  <si>
+    <t>Hotel is a few minutes outside of downtown New Orleans but of course you don't pay downtown prices. In fact it's a good 15 minutes or so from the French Quarter with good traffic but you pay less. We had a king bed no smoking on 2nd floor next to elevator. Room was clean water pressure was good. Could not hear elevator. Bed was comfortable. Room is climate controlled like your house on wall. Features full size fridge stove dish sink. Security is decent back door is locked saw several cameras etc. Will definitely be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r234924284-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>234924284</t>
+  </si>
+  <si>
+    <t>10/17/2014</t>
+  </si>
+  <si>
+    <t>Great Time and Superb Place</t>
+  </si>
+  <si>
+    <t>We spent two days here at this hotel and loved it so much. Very clean with lots of amenities. Clean and very well kept. Staff was exceptional and very helpful and friendly. Set away from the city area to keep you free of heavy traffic and yet close enough to be downtown in minutes, Definitely would go back here again,MoreShow less</t>
+  </si>
+  <si>
+    <t>We spent two days here at this hotel and loved it so much. Very clean with lots of amenities. Clean and very well kept. Staff was exceptional and very helpful and friendly. Set away from the city area to keep you free of heavy traffic and yet close enough to be downtown in minutes, Definitely would go back here again,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r216684705-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>216684705</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Great Experience from Basketball team from Gulfport MS</t>
+  </si>
+  <si>
+    <t>The staff was very friedly..they took care of our needs..The front desk Lonnie and Brad and Justin were Awesome, Helpful and took the time to make sure our stay was enjoyable..the Staff made sure that any issues I had was resolved and the housekeeping sup was the BEST!!  Ms. Shantel even made us coffee..I is always great when you only see SMILING AND HAPPY STAFF to greet visitors...I give this stay a 10!!!</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r212539039-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>212539039</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>One Night's Stay</t>
+  </si>
+  <si>
+    <t>This motel is under new management and they're really trying to make improvements.  This is an extended stay motel so they cater to business people that have to stay long term.  They don't have a "free" breakfast, just like the rest of extended stay motels.  You can cook in your room because you have a stove, fridge, sink, pans, etc.  There's a grocery store on one side and a restaurant on the other.  The laundry room is great (and clean).  The exercise room is small, but sufficient; as is the pool.  20 minutes to New Orleans.  They do supply coffee in the rooms.  The room and bed linens were clean.  I slept very well.  The staff are extremely friendly, especially Jennie at the front desk.  Yes, you will hear some noise in the mornings because people are walking down the halls in order to go to work.  We were by the elevator and I didn't wake up until 0700.  My grandson slept until I made him get up.  We stayed one night on our way to New Orleans, but I would definitely stay for a week if I were going to visit a lot of places in NOLA.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>This motel is under new management and they're really trying to make improvements.  This is an extended stay motel so they cater to business people that have to stay long term.  They don't have a "free" breakfast, just like the rest of extended stay motels.  You can cook in your room because you have a stove, fridge, sink, pans, etc.  There's a grocery store on one side and a restaurant on the other.  The laundry room is great (and clean).  The exercise room is small, but sufficient; as is the pool.  20 minutes to New Orleans.  They do supply coffee in the rooms.  The room and bed linens were clean.  I slept very well.  The staff are extremely friendly, especially Jennie at the front desk.  Yes, you will hear some noise in the mornings because people are walking down the halls in order to go to work.  We were by the elevator and I didn't wake up until 0700.  My grandson slept until I made him get up.  We stayed one night on our way to New Orleans, but I would definitely stay for a week if I were going to visit a lot of places in NOLA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r205197570-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>205197570</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loud.   Loud.    Loud.  </t>
+  </si>
+  <si>
+    <t>This room was booked for my by my company.  I was working in the area and stayed here for a month.  I stay in hotels over half the year and this place, without exception, is the loudest hotel I have EVER stayed at.  I was on the first floor and the laundry was next to me.  It sounded as if a jet was taking off about every 30 minutes.  The cleaning lady brought her kid to work and the child (approx 4-5 years old) proceeded to run up and down the halls screaming as loud as it possibly could. It smelled of bug spray when I arrived and after finding several large dead cockroaches I understood why.  Overall it was a clean place despite the roaches.  The front desk employees were helpful when asked a question. Parking here sucked!  A few parking spots up front but most are in back. There was no water pressure in the shower and the water was constantly going from "freeze" to "burn".   Overall, I rate this place as poor.  Will NOT stay here again.  Ever.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Suburban170, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded May 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2014</t>
+  </si>
+  <si>
+    <t>This room was booked for my by my company.  I was working in the area and stayed here for a month.  I stay in hotels over half the year and this place, without exception, is the loudest hotel I have EVER stayed at.  I was on the first floor and the laundry was next to me.  It sounded as if a jet was taking off about every 30 minutes.  The cleaning lady brought her kid to work and the child (approx 4-5 years old) proceeded to run up and down the halls screaming as loud as it possibly could. It smelled of bug spray when I arrived and after finding several large dead cockroaches I understood why.  Overall it was a clean place despite the roaches.  The front desk employees were helpful when asked a question. Parking here sucked!  A few parking spots up front but most are in back. There was no water pressure in the shower and the water was constantly going from "freeze" to "burn".   Overall, I rate this place as poor.  Will NOT stay here again.  Ever.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r190414761-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>190414761</t>
+  </si>
+  <si>
+    <t>01/10/2014</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>OK....so typically you only receive negative reviews because people are upset and want to voice their opinion. Well it is also in my opinion good to point out the things that make a property worth staying at so other potential guests can see the positive results of others experiences. So here goes....I have stayed at this property plenty of times and first and foremost the staff is excellent! No matter what time of day that I have been to the front desk or called, my needs were promptly taken care of and handled in a proffesional manner. Now as far as the property goes, is it the Hyatt Regency at Beverly Hills...no, but you already knew that before you started searching. Wether you are staying one night or weeks upon end the rooms are spacious enough to meet your needs. They are equipped with a nice size refrigerator, 2 burner stove top, microwave, coffe pot and necessary pots, pans, and utencils to cook meals. There is also a nice size BBQ area in the back with plenty of tables and space. Just bring your charcol, food, and yourself and you're ready to go. There is a pool, however closed at this time obviously seasonal. Nice workout room with weights and TV. Nice size laundry room to wash and dry your clothes. There is a Winn Dixie grocery store next door open from 6am till 11pm so plenty of time to...OK....so typically you only receive negative reviews because people are upset and want to voice their opinion. Well it is also in my opinion good to point out the things that make a property worth staying at so other potential guests can see the positive results of others experiences. So here goes....I have stayed at this property plenty of times and first and foremost the staff is excellent! No matter what time of day that I have been to the front desk or called, my needs were promptly taken care of and handled in a proffesional manner. Now as far as the property goes, is it the Hyatt Regency at Beverly Hills...no, but you already knew that before you started searching. Wether you are staying one night or weeks upon end the rooms are spacious enough to meet your needs. They are equipped with a nice size refrigerator, 2 burner stove top, microwave, coffe pot and necessary pots, pans, and utencils to cook meals. There is also a nice size BBQ area in the back with plenty of tables and space. Just bring your charcol, food, and yourself and you're ready to go. There is a pool, however closed at this time obviously seasonal. Nice workout room with weights and TV. Nice size laundry room to wash and dry your clothes. There is a Winn Dixie grocery store next door open from 6am till 11pm so plenty of time to get what you need and it is literally just a skip, hop, and jump away...or however that goes...lol. If you dont want to cook there is a waffle house next door as well as a McDonalds, and across the street are some gas stations a Wendys, Subway, Popeyes, Baskin Robbins, a dollar store and some other things im surely forgetting to mention, but you get the idea. If you have transportation it is in a very good spot. For motor heads there is the NOLA motorsports park near bye and for golf enthuists you have the TPC of Avondale. Downtown....Superdome...French Quarter ( the real reason you came...lol) Bourbon street all that is like a 20 minute drive as well as about a 20 minute drive the other direction to the airport. Overall I would recommend and I will stay here again when visiting the greater New Orleans area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Suburban170, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded January 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2014</t>
+  </si>
+  <si>
+    <t>OK....so typically you only receive negative reviews because people are upset and want to voice their opinion. Well it is also in my opinion good to point out the things that make a property worth staying at so other potential guests can see the positive results of others experiences. So here goes....I have stayed at this property plenty of times and first and foremost the staff is excellent! No matter what time of day that I have been to the front desk or called, my needs were promptly taken care of and handled in a proffesional manner. Now as far as the property goes, is it the Hyatt Regency at Beverly Hills...no, but you already knew that before you started searching. Wether you are staying one night or weeks upon end the rooms are spacious enough to meet your needs. They are equipped with a nice size refrigerator, 2 burner stove top, microwave, coffe pot and necessary pots, pans, and utencils to cook meals. There is also a nice size BBQ area in the back with plenty of tables and space. Just bring your charcol, food, and yourself and you're ready to go. There is a pool, however closed at this time obviously seasonal. Nice workout room with weights and TV. Nice size laundry room to wash and dry your clothes. There is a Winn Dixie grocery store next door open from 6am till 11pm so plenty of time to...OK....so typically you only receive negative reviews because people are upset and want to voice their opinion. Well it is also in my opinion good to point out the things that make a property worth staying at so other potential guests can see the positive results of others experiences. So here goes....I have stayed at this property plenty of times and first and foremost the staff is excellent! No matter what time of day that I have been to the front desk or called, my needs were promptly taken care of and handled in a proffesional manner. Now as far as the property goes, is it the Hyatt Regency at Beverly Hills...no, but you already knew that before you started searching. Wether you are staying one night or weeks upon end the rooms are spacious enough to meet your needs. They are equipped with a nice size refrigerator, 2 burner stove top, microwave, coffe pot and necessary pots, pans, and utencils to cook meals. There is also a nice size BBQ area in the back with plenty of tables and space. Just bring your charcol, food, and yourself and you're ready to go. There is a pool, however closed at this time obviously seasonal. Nice workout room with weights and TV. Nice size laundry room to wash and dry your clothes. There is a Winn Dixie grocery store next door open from 6am till 11pm so plenty of time to get what you need and it is literally just a skip, hop, and jump away...or however that goes...lol. If you dont want to cook there is a waffle house next door as well as a McDonalds, and across the street are some gas stations a Wendys, Subway, Popeyes, Baskin Robbins, a dollar store and some other things im surely forgetting to mention, but you get the idea. If you have transportation it is in a very good spot. For motor heads there is the NOLA motorsports park near bye and for golf enthuists you have the TPC of Avondale. Downtown....Superdome...French Quarter ( the real reason you came...lol) Bourbon street all that is like a 20 minute drive as well as about a 20 minute drive the other direction to the airport. Overall I would recommend and I will stay here again when visiting the greater New Orleans area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r189161286-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>189161286</t>
+  </si>
+  <si>
+    <t>12/31/2013</t>
+  </si>
+  <si>
+    <t>Very disappointed</t>
+  </si>
+  <si>
+    <t>I was very disappointed in this hotel.  We booked this place for a week and by day 4 my daughter said she seen a roach.  I did not want to believe her, the very next day I seen a roach and went to the front desk and ask for the manager, the front desk clerk said she won't be in so I told her what happened and she said she could give me some roach spray.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very disappointed in this hotel.  We booked this place for a week and by day 4 my daughter said she seen a roach.  I did not want to believe her, the very next day I seen a roach and went to the front desk and ask for the manager, the front desk clerk said she won't be in so I told her what happened and she said she could give me some roach spray.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r142743370-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>142743370</t>
+  </si>
+  <si>
+    <t>10/13/2012</t>
+  </si>
+  <si>
+    <t>NO Breakfast- first hotel,I have stayed, with NO continental breakfast</t>
+  </si>
+  <si>
+    <t>Nice hotel,But was surprised about NOT having continental breakfast. Internet service must be on telephone line. (SLooooow). The one thing,I could not believe, the bathtubs have no anti slip surfaces. My wife fell in the tub.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Suburban170, General Manager at Suburban Extended Stay Avondale, responded to this reviewResponded October 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2012</t>
+  </si>
+  <si>
+    <t>Nice hotel,But was surprised about NOT having continental breakfast. Internet service must be on telephone line. (SLooooow). The one thing,I could not believe, the bathtubs have no anti slip surfaces. My wife fell in the tub.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r117958761-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>117958761</t>
+  </si>
+  <si>
+    <t>09/11/2011</t>
+  </si>
+  <si>
+    <t>Very nice and clean rooms for a budget/extended stay hotel!!</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel for a few nights now and was really surprised at the quality and how clean this hotel is.  Some rooms seem to smell better than others but none are that bad.  Some of the rooms have newer updated furniture but even the rooms with the other furniture are in my opinion a good value and clean.  From what I've gathered the double rooms have the newer furniture and are larger.  The kitchen has a nice large refrigerator and stovetop to cook.  The counters are granite (or atlease they look and feel like it) and the bathroom is room and most importantly clean.  The hotel pool is very small and I haven't seem anyone in it but they also have plenty of BBQ grills around back if you want to grill up a meal.  The hotel has a small fitness room with free weights and a treadmill and also have a computer and printer for guest use.  Overall not bad at all and the staff has been very friendly!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel for a few nights now and was really surprised at the quality and how clean this hotel is.  Some rooms seem to smell better than others but none are that bad.  Some of the rooms have newer updated furniture but even the rooms with the other furniture are in my opinion a good value and clean.  From what I've gathered the double rooms have the newer furniture and are larger.  The kitchen has a nice large refrigerator and stovetop to cook.  The counters are granite (or atlease they look and feel like it) and the bathroom is room and most importantly clean.  The hotel pool is very small and I haven't seem anyone in it but they also have plenty of BBQ grills around back if you want to grill up a meal.  The hotel has a small fitness room with free weights and a treadmill and also have a computer and printer for guest use.  Overall not bad at all and the staff has been very friendly!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r114614118-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>114614118</t>
+  </si>
+  <si>
+    <t>06/21/2011</t>
+  </si>
+  <si>
+    <t>Very disappointed, will not come back</t>
+  </si>
+  <si>
+    <t>The pictures look a lot better than the actual place. The best part about the room was the flat screen tv. The bed, bathroom, kitchen aren't very nice. Aside from that, we were traveling with a baby and a 4 yr old, late to a wedding, and our room didn't have a shower curtain. After unpacking, and quickly getting the kids a bath, we asked front desk for a curtain and they said the only option was to switch rooms. Instead of getting a curtain from the room they'd switch us to? Or have a spare curtain? They offered to give us extra towels to line the floor. Completely unbelievable. We didn't have time to switch rooms so we just cut the trip short and stayed the one night. Don't go to this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>The pictures look a lot better than the actual place. The best part about the room was the flat screen tv. The bed, bathroom, kitchen aren't very nice. Aside from that, we were traveling with a baby and a 4 yr old, late to a wedding, and our room didn't have a shower curtain. After unpacking, and quickly getting the kids a bath, we asked front desk for a curtain and they said the only option was to switch rooms. Instead of getting a curtain from the room they'd switch us to? Or have a spare curtain? They offered to give us extra towels to line the floor. Completely unbelievable. We didn't have time to switch rooms so we just cut the trip short and stayed the one night. Don't go to this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r69884593-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>69884593</t>
+  </si>
+  <si>
+    <t>07/06/2010</t>
+  </si>
+  <si>
+    <t>Terrible Service</t>
+  </si>
+  <si>
+    <t>So I called and booked this hotel through Choice Hotels. I requested a non-smoking room for just one night. When we got to the hotel, apparently the agent had booked us in a smoking room with double beds. So, anyone who can understand my situation will know how I felt. We went to the front desk and spoke to them about it that if there wasn't any noon- smoking room available that we be refunded our money or credit towards another stay which will be non-smoking. The front desk receptionists basically, without showing any empathy said,well since this is same day reservation nothing can be done about it; but what if the wrong room was booked? He said call the manager Monday to sort it out. I called the manager who nonchalantly told me to call "whoever" I made the reservation through to sort this out as the room was reserved and no one stayed there that night. Do I Believe that? No! Her name is CARMEN and she showed no empathy or understanding. Now, I wonder if she was caught up in a situation like ours and charged $145 to their credit card, how would she feel? Front desk service when we enetered was HORRIBLE, the rooms were not that great either especially after walking through and not worth the value.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>So I called and booked this hotel through Choice Hotels. I requested a non-smoking room for just one night. When we got to the hotel, apparently the agent had booked us in a smoking room with double beds. So, anyone who can understand my situation will know how I felt. We went to the front desk and spoke to them about it that if there wasn't any noon- smoking room available that we be refunded our money or credit towards another stay which will be non-smoking. The front desk receptionists basically, without showing any empathy said,well since this is same day reservation nothing can be done about it; but what if the wrong room was booked? He said call the manager Monday to sort it out. I called the manager who nonchalantly told me to call "whoever" I made the reservation through to sort this out as the room was reserved and no one stayed there that night. Do I Believe that? No! Her name is CARMEN and she showed no empathy or understanding. Now, I wonder if she was caught up in a situation like ours and charged $145 to their credit card, how would she feel? Front desk service when we enetered was HORRIBLE, the rooms were not that great either especially after walking through and not worth the value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d472155-r7295621-Suburban_Extended_Stay_Avondale-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>7295621</t>
+  </si>
+  <si>
+    <t>04/07/2007</t>
+  </si>
+  <si>
+    <t>Excellent clean hotel with nice setup</t>
+  </si>
+  <si>
+    <t>I stayed here this past March 2007 and the hotel was in excellent condition.  Friendly staff, great location and extremely clean rooms with full kitchens.  Overall this is my home away from home when I'm in New Orleans from now on.</t>
+  </si>
+  <si>
+    <t>March 2007</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -558,6 +2322,5316 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>119</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>126</v>
+      </c>
+      <c r="X17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>135</v>
+      </c>
+      <c r="X18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>135</v>
+      </c>
+      <c r="X19" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>134</v>
+      </c>
+      <c r="O20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>150</v>
+      </c>
+      <c r="X20" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21" t="s">
+        <v>157</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>134</v>
+      </c>
+      <c r="O21" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>158</v>
+      </c>
+      <c r="X21" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>167</v>
+      </c>
+      <c r="X22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>175</v>
+      </c>
+      <c r="O23" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>176</v>
+      </c>
+      <c r="X23" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K24" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>175</v>
+      </c>
+      <c r="O24" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>184</v>
+      </c>
+      <c r="X24" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>193</v>
+      </c>
+      <c r="X25" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>201</v>
+      </c>
+      <c r="O26" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>202</v>
+      </c>
+      <c r="X26" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>201</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>210</v>
+      </c>
+      <c r="X27" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>218</v>
+      </c>
+      <c r="O28" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>219</v>
+      </c>
+      <c r="X28" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>227</v>
+      </c>
+      <c r="X29" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s">
+        <v>234</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>218</v>
+      </c>
+      <c r="O30" t="s">
+        <v>47</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>235</v>
+      </c>
+      <c r="X30" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s">
+        <v>242</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>243</v>
+      </c>
+      <c r="O31" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>244</v>
+      </c>
+      <c r="X31" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>252</v>
+      </c>
+      <c r="O32" t="s">
+        <v>47</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>253</v>
+      </c>
+      <c r="X32" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33" t="s">
+        <v>259</v>
+      </c>
+      <c r="L33" t="s">
+        <v>260</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>261</v>
+      </c>
+      <c r="O33" t="s">
+        <v>125</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>261</v>
+      </c>
+      <c r="O34" t="s">
+        <v>125</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" t="s">
+        <v>269</v>
+      </c>
+      <c r="K35" t="s">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s">
+        <v>271</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>272</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36" t="s">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s">
+        <v>278</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>279</v>
+      </c>
+      <c r="O36" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>280</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>281</v>
+      </c>
+      <c r="J37" t="s">
+        <v>282</v>
+      </c>
+      <c r="K37" t="s">
+        <v>283</v>
+      </c>
+      <c r="L37" t="s">
+        <v>284</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>279</v>
+      </c>
+      <c r="O37" t="s">
+        <v>125</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" t="s">
+        <v>287</v>
+      </c>
+      <c r="K38" t="s">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>279</v>
+      </c>
+      <c r="O38" t="s">
+        <v>54</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" t="s">
+        <v>292</v>
+      </c>
+      <c r="K39" t="s">
+        <v>293</v>
+      </c>
+      <c r="L39" t="s">
+        <v>294</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>279</v>
+      </c>
+      <c r="O39" t="s">
+        <v>54</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>297</v>
+      </c>
+      <c r="J40" t="s">
+        <v>298</v>
+      </c>
+      <c r="K40" t="s">
+        <v>299</v>
+      </c>
+      <c r="L40" t="s">
+        <v>300</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>301</v>
+      </c>
+      <c r="O40" t="s">
+        <v>125</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>304</v>
+      </c>
+      <c r="J41" t="s">
+        <v>305</v>
+      </c>
+      <c r="K41" t="s">
+        <v>306</v>
+      </c>
+      <c r="L41" t="s">
+        <v>307</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>308</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>309</v>
+      </c>
+      <c r="J42" t="s">
+        <v>310</v>
+      </c>
+      <c r="K42" t="s">
+        <v>311</v>
+      </c>
+      <c r="L42" t="s">
+        <v>312</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>313</v>
+      </c>
+      <c r="O42" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>315</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>316</v>
+      </c>
+      <c r="J43" t="s">
+        <v>317</v>
+      </c>
+      <c r="K43" t="s">
+        <v>318</v>
+      </c>
+      <c r="L43" t="s">
+        <v>319</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>313</v>
+      </c>
+      <c r="O43" t="s">
+        <v>125</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>320</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>321</v>
+      </c>
+      <c r="J44" t="s">
+        <v>322</v>
+      </c>
+      <c r="K44" t="s">
+        <v>323</v>
+      </c>
+      <c r="L44" t="s">
+        <v>324</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>313</v>
+      </c>
+      <c r="O44" t="s">
+        <v>125</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>326</v>
+      </c>
+      <c r="J45" t="s">
+        <v>327</v>
+      </c>
+      <c r="K45" t="s">
+        <v>318</v>
+      </c>
+      <c r="L45" t="s">
+        <v>328</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>313</v>
+      </c>
+      <c r="O45" t="s">
+        <v>125</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>329</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>330</v>
+      </c>
+      <c r="J46" t="s">
+        <v>331</v>
+      </c>
+      <c r="K46" t="s">
+        <v>332</v>
+      </c>
+      <c r="L46" t="s">
+        <v>333</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>313</v>
+      </c>
+      <c r="O46" t="s">
+        <v>47</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>334</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>335</v>
+      </c>
+      <c r="J47" t="s">
+        <v>336</v>
+      </c>
+      <c r="K47" t="s">
+        <v>337</v>
+      </c>
+      <c r="L47" t="s">
+        <v>338</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>313</v>
+      </c>
+      <c r="O47" t="s">
+        <v>47</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>339</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>340</v>
+      </c>
+      <c r="J48" t="s">
+        <v>341</v>
+      </c>
+      <c r="K48" t="s">
+        <v>342</v>
+      </c>
+      <c r="L48" t="s">
+        <v>343</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>313</v>
+      </c>
+      <c r="O48" t="s">
+        <v>54</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>344</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>345</v>
+      </c>
+      <c r="J49" t="s">
+        <v>346</v>
+      </c>
+      <c r="K49" t="s">
+        <v>347</v>
+      </c>
+      <c r="L49" t="s">
+        <v>348</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>313</v>
+      </c>
+      <c r="O49" t="s">
+        <v>125</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>349</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>350</v>
+      </c>
+      <c r="J50" t="s">
+        <v>351</v>
+      </c>
+      <c r="K50" t="s">
+        <v>352</v>
+      </c>
+      <c r="L50" t="s">
+        <v>353</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>354</v>
+      </c>
+      <c r="O50" t="s">
+        <v>54</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>355</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>356</v>
+      </c>
+      <c r="J51" t="s">
+        <v>357</v>
+      </c>
+      <c r="K51" t="s">
+        <v>358</v>
+      </c>
+      <c r="L51" t="s">
+        <v>359</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>360</v>
+      </c>
+      <c r="O51" t="s">
+        <v>125</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>362</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>363</v>
+      </c>
+      <c r="J52" t="s">
+        <v>364</v>
+      </c>
+      <c r="K52" t="s">
+        <v>365</v>
+      </c>
+      <c r="L52" t="s">
+        <v>366</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>354</v>
+      </c>
+      <c r="O52" t="s">
+        <v>125</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>367</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>368</v>
+      </c>
+      <c r="J53" t="s">
+        <v>369</v>
+      </c>
+      <c r="K53" t="s">
+        <v>95</v>
+      </c>
+      <c r="L53" t="s">
+        <v>370</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>354</v>
+      </c>
+      <c r="O53" t="s">
+        <v>125</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>371</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>372</v>
+      </c>
+      <c r="J54" t="s">
+        <v>373</v>
+      </c>
+      <c r="K54" t="s">
+        <v>374</v>
+      </c>
+      <c r="L54" t="s">
+        <v>375</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>376</v>
+      </c>
+      <c r="O54" t="s">
+        <v>125</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>378</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>379</v>
+      </c>
+      <c r="J55" t="s">
+        <v>380</v>
+      </c>
+      <c r="K55" t="s">
+        <v>381</v>
+      </c>
+      <c r="L55" t="s">
+        <v>382</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>383</v>
+      </c>
+      <c r="O55" t="s">
+        <v>54</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>384</v>
+      </c>
+      <c r="X55" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>387</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>388</v>
+      </c>
+      <c r="J56" t="s">
+        <v>389</v>
+      </c>
+      <c r="K56" t="s">
+        <v>318</v>
+      </c>
+      <c r="L56" t="s">
+        <v>390</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>376</v>
+      </c>
+      <c r="O56" t="s">
+        <v>125</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>384</v>
+      </c>
+      <c r="X56" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>392</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>393</v>
+      </c>
+      <c r="J57" t="s">
+        <v>394</v>
+      </c>
+      <c r="K57" t="s">
+        <v>395</v>
+      </c>
+      <c r="L57" t="s">
+        <v>396</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>376</v>
+      </c>
+      <c r="O57" t="s">
+        <v>34</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>384</v>
+      </c>
+      <c r="X57" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>398</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>399</v>
+      </c>
+      <c r="J58" t="s">
+        <v>400</v>
+      </c>
+      <c r="K58" t="s">
+        <v>401</v>
+      </c>
+      <c r="L58" t="s">
+        <v>402</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>403</v>
+      </c>
+      <c r="O58" t="s">
+        <v>47</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>404</v>
+      </c>
+      <c r="X58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>407</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>408</v>
+      </c>
+      <c r="J59" t="s">
+        <v>409</v>
+      </c>
+      <c r="K59" t="s">
+        <v>410</v>
+      </c>
+      <c r="L59" t="s">
+        <v>411</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>412</v>
+      </c>
+      <c r="O59" t="s">
+        <v>125</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>413</v>
+      </c>
+      <c r="X59" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>416</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>417</v>
+      </c>
+      <c r="J60" t="s">
+        <v>418</v>
+      </c>
+      <c r="K60" t="s">
+        <v>419</v>
+      </c>
+      <c r="L60" t="s">
+        <v>420</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>403</v>
+      </c>
+      <c r="O60" t="s">
+        <v>47</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>413</v>
+      </c>
+      <c r="X60" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>422</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>423</v>
+      </c>
+      <c r="J61" t="s">
+        <v>424</v>
+      </c>
+      <c r="K61" t="s">
+        <v>425</v>
+      </c>
+      <c r="L61" t="s">
+        <v>426</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>403</v>
+      </c>
+      <c r="O61" t="s">
+        <v>125</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>413</v>
+      </c>
+      <c r="X61" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>428</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>429</v>
+      </c>
+      <c r="J62" t="s">
+        <v>430</v>
+      </c>
+      <c r="K62" t="s">
+        <v>431</v>
+      </c>
+      <c r="L62" t="s">
+        <v>432</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>403</v>
+      </c>
+      <c r="O62" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>413</v>
+      </c>
+      <c r="X62" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>434</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>435</v>
+      </c>
+      <c r="J63" t="s">
+        <v>436</v>
+      </c>
+      <c r="K63" t="s">
+        <v>437</v>
+      </c>
+      <c r="L63" t="s">
+        <v>438</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>412</v>
+      </c>
+      <c r="O63" t="s">
+        <v>125</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>413</v>
+      </c>
+      <c r="X63" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>440</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>441</v>
+      </c>
+      <c r="J64" t="s">
+        <v>436</v>
+      </c>
+      <c r="K64" t="s">
+        <v>442</v>
+      </c>
+      <c r="L64" t="s">
+        <v>443</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>412</v>
+      </c>
+      <c r="O64" t="s">
+        <v>125</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>413</v>
+      </c>
+      <c r="X64" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>445</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>446</v>
+      </c>
+      <c r="J65" t="s">
+        <v>447</v>
+      </c>
+      <c r="K65" t="s">
+        <v>448</v>
+      </c>
+      <c r="L65" t="s">
+        <v>449</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>450</v>
+      </c>
+      <c r="O65" t="s">
+        <v>54</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>451</v>
+      </c>
+      <c r="X65" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>454</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>455</v>
+      </c>
+      <c r="J66" t="s">
+        <v>456</v>
+      </c>
+      <c r="K66" t="s">
+        <v>457</v>
+      </c>
+      <c r="L66" t="s">
+        <v>458</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>450</v>
+      </c>
+      <c r="O66" t="s">
+        <v>34</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>451</v>
+      </c>
+      <c r="X66" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>460</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>461</v>
+      </c>
+      <c r="J67" t="s">
+        <v>462</v>
+      </c>
+      <c r="K67" t="s">
+        <v>463</v>
+      </c>
+      <c r="L67" t="s">
+        <v>464</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>465</v>
+      </c>
+      <c r="O67" t="s">
+        <v>125</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>451</v>
+      </c>
+      <c r="X67" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>467</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s">
+        <v>468</v>
+      </c>
+      <c r="J68" t="s">
+        <v>469</v>
+      </c>
+      <c r="K68" t="s">
+        <v>470</v>
+      </c>
+      <c r="L68" t="s">
+        <v>471</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>450</v>
+      </c>
+      <c r="O68" t="s">
+        <v>54</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>472</v>
+      </c>
+      <c r="X68" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>475</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>476</v>
+      </c>
+      <c r="J69" t="s">
+        <v>477</v>
+      </c>
+      <c r="K69" t="s">
+        <v>478</v>
+      </c>
+      <c r="L69" t="s">
+        <v>479</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>450</v>
+      </c>
+      <c r="O69" t="s">
+        <v>34</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>472</v>
+      </c>
+      <c r="X69" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>481</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>482</v>
+      </c>
+      <c r="J70" t="s">
+        <v>483</v>
+      </c>
+      <c r="K70" t="s">
+        <v>484</v>
+      </c>
+      <c r="L70" t="s">
+        <v>485</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>472</v>
+      </c>
+      <c r="X70" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>487</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>488</v>
+      </c>
+      <c r="J71" t="s">
+        <v>489</v>
+      </c>
+      <c r="K71" t="s">
+        <v>490</v>
+      </c>
+      <c r="L71" t="s">
+        <v>491</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>492</v>
+      </c>
+      <c r="O71" t="s">
+        <v>125</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>493</v>
+      </c>
+      <c r="X71" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>496</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>497</v>
+      </c>
+      <c r="J72" t="s">
+        <v>498</v>
+      </c>
+      <c r="K72" t="s">
+        <v>499</v>
+      </c>
+      <c r="L72" t="s">
+        <v>500</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>501</v>
+      </c>
+      <c r="O72" t="s">
+        <v>125</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>493</v>
+      </c>
+      <c r="X72" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>503</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>504</v>
+      </c>
+      <c r="J73" t="s">
+        <v>505</v>
+      </c>
+      <c r="K73" t="s">
+        <v>506</v>
+      </c>
+      <c r="L73" t="s">
+        <v>507</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>360</v>
+      </c>
+      <c r="O73" t="s">
+        <v>41</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>493</v>
+      </c>
+      <c r="X73" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>509</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>510</v>
+      </c>
+      <c r="J74" t="s">
+        <v>511</v>
+      </c>
+      <c r="K74" t="s">
+        <v>512</v>
+      </c>
+      <c r="L74" t="s">
+        <v>513</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>514</v>
+      </c>
+      <c r="O74" t="s">
+        <v>125</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>515</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>516</v>
+      </c>
+      <c r="J75" t="s">
+        <v>517</v>
+      </c>
+      <c r="K75" t="s">
+        <v>518</v>
+      </c>
+      <c r="L75" t="s">
+        <v>519</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>520</v>
+      </c>
+      <c r="O75" t="s">
+        <v>54</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>521</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>522</v>
+      </c>
+      <c r="J76" t="s">
+        <v>523</v>
+      </c>
+      <c r="K76" t="s">
+        <v>524</v>
+      </c>
+      <c r="L76" t="s">
+        <v>525</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>526</v>
+      </c>
+      <c r="O76" t="s">
+        <v>47</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>527</v>
+      </c>
+      <c r="X76" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>530</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>531</v>
+      </c>
+      <c r="J77" t="s">
+        <v>532</v>
+      </c>
+      <c r="K77" t="s">
+        <v>533</v>
+      </c>
+      <c r="L77" t="s">
+        <v>534</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>526</v>
+      </c>
+      <c r="O77" t="s">
+        <v>47</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>527</v>
+      </c>
+      <c r="X77" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>536</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>537</v>
+      </c>
+      <c r="J78" t="s">
+        <v>538</v>
+      </c>
+      <c r="K78" t="s">
+        <v>539</v>
+      </c>
+      <c r="L78" t="s">
+        <v>540</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>541</v>
+      </c>
+      <c r="O78" t="s">
+        <v>34</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>542</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s">
+        <v>543</v>
+      </c>
+      <c r="J79" t="s">
+        <v>544</v>
+      </c>
+      <c r="K79" t="s">
+        <v>545</v>
+      </c>
+      <c r="L79" t="s">
+        <v>546</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>547</v>
+      </c>
+      <c r="O79" t="s">
+        <v>54</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>549</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>550</v>
+      </c>
+      <c r="J80" t="s">
+        <v>551</v>
+      </c>
+      <c r="K80" t="s">
+        <v>552</v>
+      </c>
+      <c r="L80" t="s">
+        <v>553</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>554</v>
+      </c>
+      <c r="O80" t="s">
+        <v>125</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>555</v>
+      </c>
+      <c r="X80" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>558</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>559</v>
+      </c>
+      <c r="J81" t="s">
+        <v>560</v>
+      </c>
+      <c r="K81" t="s">
+        <v>561</v>
+      </c>
+      <c r="L81" t="s">
+        <v>562</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>563</v>
+      </c>
+      <c r="O81" t="s">
+        <v>125</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>564</v>
+      </c>
+      <c r="X81" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>567</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>568</v>
+      </c>
+      <c r="J82" t="s">
+        <v>569</v>
+      </c>
+      <c r="K82" t="s">
+        <v>570</v>
+      </c>
+      <c r="L82" t="s">
+        <v>571</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>563</v>
+      </c>
+      <c r="O82" t="s">
+        <v>125</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>564</v>
+      </c>
+      <c r="X82" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>573</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>574</v>
+      </c>
+      <c r="J83" t="s">
+        <v>575</v>
+      </c>
+      <c r="K83" t="s">
+        <v>576</v>
+      </c>
+      <c r="L83" t="s">
+        <v>577</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>578</v>
+      </c>
+      <c r="O83" t="s">
+        <v>54</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>579</v>
+      </c>
+      <c r="X83" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>582</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>583</v>
+      </c>
+      <c r="J84" t="s">
+        <v>584</v>
+      </c>
+      <c r="K84" t="s">
+        <v>585</v>
+      </c>
+      <c r="L84" t="s">
+        <v>586</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>587</v>
+      </c>
+      <c r="O84" t="s">
+        <v>125</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>589</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>590</v>
+      </c>
+      <c r="J85" t="s">
+        <v>591</v>
+      </c>
+      <c r="K85" t="s">
+        <v>592</v>
+      </c>
+      <c r="L85" t="s">
+        <v>593</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>594</v>
+      </c>
+      <c r="O85" t="s">
+        <v>54</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>596</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>597</v>
+      </c>
+      <c r="J86" t="s">
+        <v>598</v>
+      </c>
+      <c r="K86" t="s">
+        <v>599</v>
+      </c>
+      <c r="L86" t="s">
+        <v>600</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>601</v>
+      </c>
+      <c r="O86" t="s">
+        <v>47</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>52917</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>603</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s">
+        <v>604</v>
+      </c>
+      <c r="J87" t="s">
+        <v>605</v>
+      </c>
+      <c r="K87" t="s">
+        <v>606</v>
+      </c>
+      <c r="L87" t="s">
+        <v>607</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>608</v>
+      </c>
+      <c r="O87" t="s">
+        <v>125</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>607</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -580,31 +7654,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>609</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>610</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>612</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>613</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>614</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>615</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>616</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2">
@@ -612,31 +7686,31 @@
         <v>52917</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>618</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>619</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>620</v>
       </c>
       <c r="E2" t="n">
         <v>70094</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>621</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>622</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>623</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>624</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
